--- a/data/parametri_teorici_modelli.xlsx
+++ b/data/parametri_teorici_modelli.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="36">
   <si>
     <t xml:space="preserve">r_xy</t>
   </si>
@@ -128,6 +128,12 @@
     <t xml:space="preserve">Half Width</t>
   </si>
   <si>
+    <t xml:space="preserve">s</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Half Width 90%</t>
+  </si>
+  <si>
     <t xml:space="preserve">Ts</t>
   </si>
   <si>
@@ -150,9 +156,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="2">
+  <numFmts count="3">
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="#,##0.00"/>
+    <numFmt numFmtId="166" formatCode="General"/>
   </numFmts>
   <fonts count="14">
     <font>
@@ -356,16 +363,16 @@
     <xf numFmtId="164" fontId="6" fillId="4" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="5" borderId="1" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="4" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </xf>
     <xf numFmtId="164" fontId="7" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="4" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="5" borderId="1" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </xf>
   </cellStyleXfs>
@@ -410,11 +417,15 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="25" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="23" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="25" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="24" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -426,15 +437,15 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="8" fillId="3" borderId="1" xfId="26" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="3" borderId="1" xfId="24" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="4" borderId="0" xfId="26" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="6" fillId="4" borderId="0" xfId="23" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -442,15 +453,11 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="4" borderId="0" xfId="22" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="25" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -465,12 +472,12 @@
     <cellStyle name="Accent 2 1" xfId="20"/>
     <cellStyle name="Accent 3 2" xfId="21"/>
     <cellStyle name="Good 3" xfId="22"/>
-    <cellStyle name="Heading 1 1" xfId="23"/>
-    <cellStyle name="Note 2" xfId="24"/>
-    <cellStyle name="Heading 1" xfId="25"/>
-    <cellStyle name="Good" xfId="26"/>
+    <cellStyle name="Good 4" xfId="23"/>
+    <cellStyle name="Heading 1 1" xfId="24"/>
+    <cellStyle name="Heading 1 2" xfId="25"/>
+    <cellStyle name="Note 2" xfId="26"/>
   </cellStyles>
-  <dxfs count="2">
+  <dxfs count="4">
     <dxf>
       <font>
         <name val="Arial"/>
@@ -483,6 +490,41 @@
           <bgColor rgb="FFCCFFCC"/>
         </patternFill>
       </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="Arial"/>
+        <charset val="1"/>
+        <family val="0"/>
+        <color rgb="FF006600"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFCCFFCC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="Arial"/>
+        <charset val="1"/>
+        <family val="0"/>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <color rgb="FF006600"/>
+        <sz val="10"/>
+        <u val="none"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="General"/>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFCCFFCC"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </dxf>
     <dxf>
       <font>
@@ -561,7 +603,7 @@
 </styleSheet>
 </file>
 
-<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -671,10 +713,10 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>1.01060007186489</c:v>
+                  <c:v>1.0106000718649</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>4.89130434782609</c:v>
+                  <c:v>4.8913043478261</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -761,11 +803,11 @@
         </c:ser>
         <c:gapWidth val="100"/>
         <c:overlap val="0"/>
-        <c:axId val="28736903"/>
-        <c:axId val="38449265"/>
+        <c:axId val="46889046"/>
+        <c:axId val="26580797"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="28736903"/>
+        <c:axId val="46889046"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -793,7 +835,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="38449265"/>
+        <c:crossAx val="26580797"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -801,7 +843,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="38449265"/>
+        <c:axId val="26580797"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -838,7 +880,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="28736903"/>
+        <c:crossAx val="46889046"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -886,7 +928,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -977,7 +1019,7 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet2!$L$14:$L$15</c:f>
+              <c:f>Sheet2!$N$14:$N$15</c:f>
               <c:strCache>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
@@ -991,7 +1033,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet2!$M$14:$M$15</c:f>
+              <c:f>Sheet2!$O$14:$O$15</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
@@ -999,7 +1041,7 @@
                   <c:v>0.28297865344878</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2.0758252847052</c:v>
+                  <c:v>2.07582528470521</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1056,7 +1098,7 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet2!$L$14:$L$15</c:f>
+              <c:f>Sheet2!$N$14:$N$15</c:f>
               <c:strCache>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
@@ -1070,7 +1112,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet2!$N$14:$N$15</c:f>
+              <c:f>Sheet2!$P$14:$P$15</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
@@ -1086,11 +1128,11 @@
         </c:ser>
         <c:gapWidth val="100"/>
         <c:overlap val="0"/>
-        <c:axId val="61027826"/>
-        <c:axId val="63961230"/>
+        <c:axId val="28561684"/>
+        <c:axId val="91549913"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="61027826"/>
+        <c:axId val="28561684"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1118,7 +1160,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="63961230"/>
+        <c:crossAx val="91549913"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1126,7 +1168,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="63961230"/>
+        <c:axId val="91549913"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1163,7 +1205,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="61027826"/>
+        <c:crossAx val="28561684"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1222,9 +1264,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>461520</xdr:colOff>
+      <xdr:colOff>627480</xdr:colOff>
       <xdr:row>43</xdr:row>
-      <xdr:rowOff>20160</xdr:rowOff>
+      <xdr:rowOff>19800</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -1233,7 +1275,7 @@
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="534600" y="3629160"/>
-        <a:ext cx="6429240" cy="3616200"/>
+        <a:ext cx="6428880" cy="3615840"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -1245,16 +1287,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>9</xdr:col>
+      <xdr:col>11</xdr:col>
       <xdr:colOff>358200</xdr:colOff>
       <xdr:row>21</xdr:row>
       <xdr:rowOff>41400</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>284040</xdr:colOff>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>283320</xdr:colOff>
       <xdr:row>43</xdr:row>
-      <xdr:rowOff>80280</xdr:rowOff>
+      <xdr:rowOff>79920</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -1262,8 +1304,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="7673400" y="3690000"/>
-        <a:ext cx="6428160" cy="3615480"/>
+        <a:off x="9132480" y="3690000"/>
+        <a:ext cx="6427800" cy="3615120"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -1283,7 +1325,7 @@
   </sheetPr>
   <dimension ref="A1:T36"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="E35" activeCellId="0" sqref="E35"/>
     </sheetView>
   </sheetViews>
@@ -1491,7 +1533,6 @@
       <c r="M7" s="1"/>
       <c r="N7" s="1"/>
       <c r="P7" s="1"/>
-      <c r="Q7" s="1"/>
     </row>
     <row r="8" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1"/>
@@ -1985,7 +2026,7 @@
       <c r="T24" s="1"/>
     </row>
     <row r="31" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D31" s="0" t="s">
+      <c r="D31" s="10" t="s">
         <v>21</v>
       </c>
     </row>
@@ -2040,1001 +2081,1133 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:R61"/>
+  <dimension ref="A1:T61"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A5" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C56" activeCellId="0" sqref="C56"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A34" colorId="64" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="G63" activeCellId="0" sqref="G63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="6.85"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="13.86"/>
+  </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="22.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D1" s="10" t="s">
+      <c r="D1" s="11" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="22.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B4" s="11" t="s">
+      <c r="B4" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="C4" s="11"/>
-      <c r="D4" s="11"/>
-      <c r="G4" s="11" t="s">
+      <c r="C4" s="12"/>
+      <c r="D4" s="12"/>
+      <c r="I4" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="H4" s="11"/>
-      <c r="I4" s="11"/>
-      <c r="J4" s="11"/>
-      <c r="L4" s="11" t="s">
+      <c r="J4" s="12"/>
+      <c r="K4" s="12"/>
+      <c r="L4" s="12"/>
+      <c r="N4" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="M4" s="11"/>
-      <c r="N4" s="11"/>
-      <c r="O4" s="11"/>
+      <c r="O4" s="12"/>
+      <c r="P4" s="12"/>
+      <c r="Q4" s="12"/>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B5" s="12" t="s">
+      <c r="B5" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="C5" s="12"/>
-      <c r="D5" s="12"/>
-      <c r="G5" s="12" t="s">
+      <c r="C5" s="13"/>
+      <c r="D5" s="13"/>
+      <c r="I5" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="H5" s="12"/>
-      <c r="I5" s="12"/>
-      <c r="J5" s="12"/>
-      <c r="L5" s="12" t="s">
+      <c r="J5" s="13"/>
+      <c r="K5" s="13"/>
+      <c r="L5" s="13"/>
+      <c r="N5" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="12"/>
-      <c r="N5" s="12"/>
-      <c r="O5" s="12"/>
+      <c r="O5" s="13"/>
+      <c r="P5" s="13"/>
+      <c r="Q5" s="13"/>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C6" s="13" t="s">
+      <c r="C6" s="14" t="s">
         <v>25</v>
       </c>
-      <c r="D6" s="13" t="s">
+      <c r="D6" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="E6" s="13" t="s">
+      <c r="E6" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="H6" s="13" t="s">
+      <c r="F6" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="G6" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="J6" s="14" t="s">
         <v>25</v>
       </c>
-      <c r="I6" s="13" t="s">
+      <c r="K6" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="J6" s="13" t="s">
+      <c r="L6" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="M6" s="13" t="s">
+      <c r="O6" s="14" t="s">
         <v>25</v>
       </c>
-      <c r="N6" s="13" t="s">
+      <c r="P6" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="O6" s="13" t="s">
+      <c r="Q6" s="14" t="s">
         <v>27</v>
       </c>
+      <c r="R6" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="S6" s="14" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B7" s="14" t="s">
-        <v>28</v>
-      </c>
-      <c r="C7" s="14" t="n">
+      <c r="B7" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="C7" s="10" t="n">
         <f aca="false">Foglio1!F18</f>
         <v>3</v>
       </c>
       <c r="D7" s="15"/>
       <c r="E7" s="15"/>
-      <c r="G7" s="14" t="s">
-        <v>28</v>
-      </c>
-      <c r="H7" s="14" t="n">
+      <c r="I7" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="J7" s="10" t="n">
         <f aca="false">Foglio1!F13</f>
         <v>8</v>
       </c>
-      <c r="I7" s="14" t="s">
+      <c r="K7" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="L7" s="14" t="s">
-        <v>28</v>
-      </c>
-      <c r="M7" s="14" t="n">
+      <c r="N7" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="O7" s="10" t="n">
         <f aca="false">Foglio1!J13</f>
         <v>3</v>
       </c>
-      <c r="N7" s="14" t="s">
+      <c r="P7" s="10" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B8" s="14" t="s">
-        <v>29</v>
-      </c>
-      <c r="C8" s="14" t="n">
+      <c r="B8" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="C8" s="10" t="n">
         <f aca="false">Foglio1!F19</f>
         <v>0.333333333333333</v>
       </c>
       <c r="D8" s="15"/>
       <c r="E8" s="15"/>
-      <c r="G8" s="14" t="s">
-        <v>29</v>
-      </c>
-      <c r="H8" s="14" t="n">
+      <c r="I8" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="J8" s="10" t="n">
         <f aca="false">Foglio1!F14</f>
         <v>0.125</v>
       </c>
-      <c r="I8" s="14" t="s">
+      <c r="K8" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="L8" s="14" t="s">
-        <v>29</v>
-      </c>
-      <c r="M8" s="14" t="n">
+      <c r="N8" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="O8" s="10" t="n">
         <f aca="false">Foglio1!J14</f>
         <v>0.333333333333333</v>
       </c>
-      <c r="N8" s="14" t="s">
+      <c r="P8" s="10" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B9" s="14" t="s">
+      <c r="B9" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="C9" s="14" t="n">
+      <c r="C9" s="10" t="n">
         <f aca="false">Foglio1!F20</f>
         <v>0.206611570247934</v>
       </c>
       <c r="D9" s="15"/>
       <c r="E9" s="15"/>
-      <c r="G9" s="14" t="s">
+      <c r="I9" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="H9" s="14" t="n">
+      <c r="J9" s="10" t="n">
         <f aca="false">Foglio1!F15</f>
         <v>0.357842719604669</v>
       </c>
-      <c r="I9" s="14" t="s">
+      <c r="K9" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="L9" s="14" t="s">
+      <c r="N9" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="M9" s="14" t="n">
+      <c r="O9" s="10" t="n">
         <f aca="false">Foglio1!J15</f>
         <v>0.136321036039874</v>
       </c>
-      <c r="N9" s="14" t="s">
+      <c r="P9" s="10" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B10" s="14" t="s">
+      <c r="B10" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="C10" s="14" t="n">
+      <c r="C10" s="16" t="n">
         <f aca="false">Foglio1!F21</f>
         <v>0.619834710743802</v>
       </c>
-      <c r="D10" s="16" t="n">
+      <c r="D10" s="17" t="n">
         <v>0.627</v>
       </c>
-      <c r="E10" s="14" t="n">
+      <c r="E10" s="10" t="n">
         <v>0.02</v>
       </c>
-      <c r="G10" s="14" t="s">
+      <c r="F10" s="0" t="n">
+        <f aca="false">(1/1.96) * SQRT(100) * E10</f>
+        <v>0.102040816326531</v>
+      </c>
+      <c r="G10" s="0" t="n">
+        <f aca="false">1.645 * (F10/SQRT(100))</f>
+        <v>0.0167857142857143</v>
+      </c>
+      <c r="I10" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="H10" s="14" t="n">
+      <c r="J10" s="10" t="n">
         <f aca="false">Foglio1!F16</f>
         <v>2.86274175683735</v>
       </c>
-      <c r="I10" s="14" t="s">
+      <c r="K10" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="L10" s="14" t="s">
+      <c r="N10" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="M10" s="14" t="n">
+      <c r="O10" s="16" t="n">
         <f aca="false">Foglio1!J16</f>
         <v>0.408963108119622</v>
       </c>
-      <c r="N10" s="16" t="n">
+      <c r="P10" s="17" t="n">
         <v>0.4045</v>
       </c>
-      <c r="O10" s="14" t="n">
+      <c r="Q10" s="10" t="n">
         <v>0.02</v>
       </c>
+      <c r="R10" s="0" t="n">
+        <f aca="false">(1/1.96) * SQRT(100) * Q10</f>
+        <v>0.102040816326531</v>
+      </c>
+      <c r="S10" s="0" t="n">
+        <f aca="false">1.645 * (R10/SQRT(100))</f>
+        <v>0.0167857142857143</v>
+      </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B12" s="14" t="s">
-        <v>30</v>
-      </c>
-      <c r="C12" s="14" t="n">
+      <c r="B12" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="C12" s="10" t="n">
         <f aca="false">C10/(1-C10)</f>
         <v>1.6304347826087</v>
       </c>
-      <c r="D12" s="17"/>
-      <c r="E12" s="17"/>
-      <c r="G12" s="14" t="s">
+      <c r="D12" s="18"/>
+      <c r="E12" s="18"/>
+      <c r="I12" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="J12" s="10" t="n">
+        <f aca="false">J10</f>
+        <v>2.86274175683735</v>
+      </c>
+      <c r="K12" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="N12" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="O12" s="10" t="n">
+        <f aca="false">O10/(1-O10)</f>
+        <v>0.691941761568402</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B13" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="C13" s="10" t="n">
+        <f aca="false">(1/C8)/(1-C10)</f>
+        <v>7.8913043478261</v>
+      </c>
+      <c r="D13" s="18"/>
+      <c r="E13" s="18"/>
+      <c r="I13" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="J13" s="10" t="n">
+        <f aca="false">J7</f>
+        <v>8</v>
+      </c>
+      <c r="K13" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="N13" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="O13" s="10" t="n">
+        <f aca="false">(1/O8)/(1-O10)</f>
+        <v>5.07582528470521</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B14" s="14" t="s">
+        <v>34</v>
+      </c>
+      <c r="C14" s="19" t="n">
+        <f aca="false">C12 -C10</f>
+        <v>1.0106000718649</v>
+      </c>
+      <c r="D14" s="20" t="n">
+        <v>1.0013</v>
+      </c>
+      <c r="E14" s="10" t="n">
+        <v>0.16</v>
+      </c>
+      <c r="F14" s="0" t="n">
+        <f aca="false">(1/1.96) * SQRT(100) * E14</f>
+        <v>0.816326530612245</v>
+      </c>
+      <c r="G14" s="0" t="n">
+        <f aca="false">1.645 * (F14/SQRT(100))</f>
+        <v>0.134285714285714</v>
+      </c>
+      <c r="N14" s="14" t="s">
+        <v>34</v>
+      </c>
+      <c r="O14" s="19" t="n">
+        <f aca="false">O12 -O10</f>
+        <v>0.28297865344878</v>
+      </c>
+      <c r="P14" s="20" t="n">
+        <v>0.2674</v>
+      </c>
+      <c r="Q14" s="10" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="R14" s="0" t="n">
+        <f aca="false">(1/1.96) * SQRT(100) * Q14</f>
+        <v>0.204081632653061</v>
+      </c>
+      <c r="S14" s="0" t="n">
+        <f aca="false">1.645 * (R14/SQRT(100))</f>
+        <v>0.0335714285714286</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B15" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="C15" s="19" t="n">
+        <f aca="false">C13-C7</f>
+        <v>4.8913043478261</v>
+      </c>
+      <c r="D15" s="20" t="n">
+        <v>4.4847</v>
+      </c>
+      <c r="E15" s="10" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="F15" s="0" t="n">
+        <f aca="false">(1/1.96) * SQRT(100) * E15</f>
+        <v>3.06122448979592</v>
+      </c>
+      <c r="G15" s="0" t="n">
+        <f aca="false">1.645 * (F15/SQRT(100))</f>
+        <v>0.503571428571429</v>
+      </c>
+      <c r="N15" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="O15" s="19" t="n">
+        <f aca="false">O13-O7</f>
+        <v>2.07582528470521</v>
+      </c>
+      <c r="P15" s="20" t="n">
+        <v>1.905</v>
+      </c>
+      <c r="Q15" s="10" t="n">
+        <v>0.28</v>
+      </c>
+      <c r="R15" s="0" t="n">
+        <f aca="false">(1/1.96) * SQRT(100) * Q15</f>
+        <v>1.42857142857143</v>
+      </c>
+      <c r="S15" s="0" t="n">
+        <f aca="false">1.645 * (R15/SQRT(100))</f>
+        <v>0.235</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="10"/>
+      <c r="B20" s="10"/>
+      <c r="C20" s="10"/>
+      <c r="D20" s="10"/>
+      <c r="E20" s="10"/>
+      <c r="F20" s="10"/>
+      <c r="G20" s="10"/>
+      <c r="H20" s="10"/>
+      <c r="I20" s="10"/>
+      <c r="J20" s="10"/>
+      <c r="K20" s="10"/>
+      <c r="L20" s="10"/>
+      <c r="M20" s="10"/>
+      <c r="N20" s="10"/>
+      <c r="O20" s="10"/>
+      <c r="P20" s="10"/>
+      <c r="Q20" s="10"/>
+      <c r="R20" s="10"/>
+      <c r="S20" s="10"/>
+      <c r="T20" s="10"/>
+    </row>
+    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="10"/>
+      <c r="B21" s="10"/>
+      <c r="C21" s="10"/>
+      <c r="D21" s="10"/>
+      <c r="E21" s="10"/>
+      <c r="F21" s="10"/>
+      <c r="G21" s="10"/>
+      <c r="H21" s="10"/>
+      <c r="I21" s="10"/>
+      <c r="J21" s="10"/>
+      <c r="K21" s="10"/>
+      <c r="L21" s="10"/>
+      <c r="M21" s="10"/>
+      <c r="N21" s="10"/>
+      <c r="O21" s="10"/>
+      <c r="P21" s="10"/>
+      <c r="Q21" s="10"/>
+      <c r="R21" s="10"/>
+      <c r="S21" s="10"/>
+      <c r="T21" s="10"/>
+    </row>
+    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="10"/>
+      <c r="B22" s="10"/>
+      <c r="C22" s="10"/>
+      <c r="D22" s="10"/>
+      <c r="E22" s="10"/>
+      <c r="F22" s="10"/>
+      <c r="G22" s="10"/>
+      <c r="H22" s="10"/>
+      <c r="I22" s="10"/>
+      <c r="J22" s="10"/>
+      <c r="K22" s="10"/>
+      <c r="L22" s="10"/>
+      <c r="M22" s="10"/>
+      <c r="N22" s="10"/>
+      <c r="O22" s="10"/>
+      <c r="P22" s="10"/>
+      <c r="Q22" s="10"/>
+      <c r="R22" s="10"/>
+      <c r="S22" s="10"/>
+      <c r="T22" s="10"/>
+    </row>
+    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="10"/>
+      <c r="B23" s="10"/>
+      <c r="C23" s="10"/>
+      <c r="D23" s="10"/>
+      <c r="E23" s="10"/>
+      <c r="F23" s="10"/>
+      <c r="G23" s="10"/>
+      <c r="H23" s="10"/>
+      <c r="I23" s="10"/>
+      <c r="J23" s="10"/>
+      <c r="K23" s="10"/>
+      <c r="L23" s="10"/>
+      <c r="M23" s="10"/>
+      <c r="N23" s="10"/>
+      <c r="O23" s="10"/>
+      <c r="P23" s="10"/>
+      <c r="Q23" s="10"/>
+      <c r="R23" s="10"/>
+      <c r="S23" s="10"/>
+      <c r="T23" s="10"/>
+    </row>
+    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="10"/>
+      <c r="B24" s="10"/>
+      <c r="C24" s="10"/>
+      <c r="D24" s="10"/>
+      <c r="E24" s="10"/>
+      <c r="F24" s="10"/>
+      <c r="G24" s="10"/>
+      <c r="H24" s="10"/>
+      <c r="I24" s="10"/>
+      <c r="J24" s="10"/>
+      <c r="K24" s="10"/>
+      <c r="L24" s="10"/>
+      <c r="M24" s="10"/>
+      <c r="N24" s="10"/>
+      <c r="O24" s="10"/>
+      <c r="P24" s="10"/>
+      <c r="Q24" s="10"/>
+      <c r="R24" s="10"/>
+      <c r="S24" s="10"/>
+      <c r="T24" s="10"/>
+    </row>
+    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="10"/>
+      <c r="B25" s="10"/>
+      <c r="C25" s="10"/>
+      <c r="D25" s="10"/>
+      <c r="E25" s="10"/>
+      <c r="F25" s="10"/>
+      <c r="G25" s="10"/>
+      <c r="H25" s="10"/>
+      <c r="I25" s="10"/>
+      <c r="J25" s="10"/>
+      <c r="K25" s="10"/>
+      <c r="L25" s="10"/>
+      <c r="M25" s="10"/>
+      <c r="N25" s="10"/>
+      <c r="O25" s="10"/>
+      <c r="P25" s="10"/>
+      <c r="Q25" s="10"/>
+      <c r="R25" s="10"/>
+      <c r="S25" s="10"/>
+      <c r="T25" s="10"/>
+    </row>
+    <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="10"/>
+      <c r="B26" s="10"/>
+      <c r="C26" s="10"/>
+      <c r="D26" s="10"/>
+      <c r="E26" s="10"/>
+      <c r="F26" s="10"/>
+      <c r="G26" s="10"/>
+      <c r="H26" s="10"/>
+      <c r="I26" s="10"/>
+      <c r="J26" s="10"/>
+      <c r="K26" s="10"/>
+      <c r="L26" s="10"/>
+      <c r="M26" s="10"/>
+      <c r="N26" s="10"/>
+      <c r="O26" s="10"/>
+      <c r="P26" s="10"/>
+      <c r="Q26" s="10"/>
+      <c r="R26" s="10"/>
+      <c r="S26" s="10"/>
+      <c r="T26" s="10"/>
+    </row>
+    <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="10"/>
+      <c r="B27" s="10"/>
+      <c r="C27" s="10"/>
+      <c r="D27" s="10"/>
+      <c r="E27" s="10"/>
+      <c r="F27" s="10"/>
+      <c r="G27" s="10"/>
+      <c r="H27" s="10"/>
+      <c r="I27" s="10"/>
+      <c r="J27" s="10"/>
+      <c r="K27" s="10"/>
+      <c r="L27" s="10"/>
+      <c r="M27" s="10"/>
+      <c r="N27" s="10"/>
+      <c r="O27" s="10"/>
+      <c r="P27" s="10"/>
+      <c r="Q27" s="10"/>
+      <c r="R27" s="10"/>
+      <c r="S27" s="10"/>
+      <c r="T27" s="10"/>
+    </row>
+    <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="10"/>
+      <c r="B28" s="10"/>
+      <c r="C28" s="10"/>
+      <c r="D28" s="10"/>
+      <c r="E28" s="10"/>
+      <c r="F28" s="10"/>
+      <c r="G28" s="10"/>
+      <c r="H28" s="10"/>
+      <c r="I28" s="10"/>
+      <c r="J28" s="10"/>
+      <c r="K28" s="10"/>
+      <c r="L28" s="10"/>
+      <c r="M28" s="10"/>
+      <c r="N28" s="10"/>
+      <c r="O28" s="10"/>
+      <c r="P28" s="10"/>
+      <c r="Q28" s="10"/>
+      <c r="R28" s="10"/>
+      <c r="S28" s="10"/>
+      <c r="T28" s="10"/>
+    </row>
+    <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="10"/>
+      <c r="B29" s="10"/>
+      <c r="C29" s="10"/>
+      <c r="D29" s="10"/>
+      <c r="E29" s="10"/>
+      <c r="F29" s="10"/>
+      <c r="G29" s="10"/>
+      <c r="H29" s="10"/>
+      <c r="I29" s="10"/>
+      <c r="J29" s="10"/>
+      <c r="K29" s="10"/>
+      <c r="L29" s="10"/>
+      <c r="M29" s="10"/>
+      <c r="N29" s="10"/>
+      <c r="O29" s="10"/>
+      <c r="P29" s="10"/>
+      <c r="Q29" s="10"/>
+      <c r="R29" s="10"/>
+      <c r="S29" s="10"/>
+      <c r="T29" s="10"/>
+    </row>
+    <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A30" s="10"/>
+      <c r="B30" s="10"/>
+      <c r="C30" s="10"/>
+      <c r="D30" s="10"/>
+      <c r="E30" s="10"/>
+      <c r="F30" s="10"/>
+      <c r="G30" s="10"/>
+      <c r="H30" s="10"/>
+      <c r="I30" s="10"/>
+      <c r="J30" s="10"/>
+      <c r="K30" s="10"/>
+      <c r="L30" s="10"/>
+      <c r="M30" s="10"/>
+      <c r="N30" s="10"/>
+      <c r="O30" s="10"/>
+      <c r="P30" s="10"/>
+      <c r="Q30" s="10"/>
+      <c r="R30" s="10"/>
+      <c r="S30" s="10"/>
+      <c r="T30" s="10"/>
+    </row>
+    <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A31" s="10"/>
+      <c r="B31" s="10"/>
+      <c r="C31" s="10"/>
+      <c r="D31" s="10"/>
+      <c r="E31" s="10"/>
+      <c r="F31" s="10"/>
+      <c r="G31" s="10"/>
+      <c r="H31" s="10"/>
+      <c r="I31" s="10"/>
+      <c r="J31" s="10"/>
+      <c r="K31" s="10"/>
+      <c r="L31" s="10"/>
+      <c r="M31" s="10"/>
+      <c r="N31" s="10"/>
+      <c r="O31" s="10"/>
+      <c r="P31" s="10"/>
+      <c r="Q31" s="10"/>
+      <c r="R31" s="10"/>
+      <c r="S31" s="10"/>
+      <c r="T31" s="10"/>
+    </row>
+    <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A32" s="10"/>
+      <c r="B32" s="10"/>
+      <c r="C32" s="10"/>
+      <c r="D32" s="10"/>
+      <c r="E32" s="10"/>
+      <c r="F32" s="10"/>
+      <c r="G32" s="10"/>
+      <c r="H32" s="10"/>
+      <c r="I32" s="10"/>
+      <c r="J32" s="10"/>
+      <c r="K32" s="10"/>
+      <c r="L32" s="10"/>
+      <c r="M32" s="10"/>
+      <c r="N32" s="10"/>
+      <c r="O32" s="10"/>
+      <c r="P32" s="10"/>
+      <c r="Q32" s="10"/>
+      <c r="R32" s="10"/>
+      <c r="S32" s="10"/>
+      <c r="T32" s="10"/>
+    </row>
+    <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A33" s="10"/>
+      <c r="B33" s="10"/>
+      <c r="C33" s="10"/>
+      <c r="D33" s="10"/>
+      <c r="E33" s="10"/>
+      <c r="F33" s="10"/>
+      <c r="G33" s="10"/>
+      <c r="H33" s="10"/>
+      <c r="I33" s="10"/>
+      <c r="J33" s="10"/>
+      <c r="K33" s="10"/>
+      <c r="L33" s="10"/>
+      <c r="M33" s="10"/>
+      <c r="N33" s="10"/>
+      <c r="O33" s="10"/>
+      <c r="P33" s="10"/>
+      <c r="Q33" s="10"/>
+      <c r="R33" s="10"/>
+      <c r="S33" s="10"/>
+      <c r="T33" s="10"/>
+    </row>
+    <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A34" s="10"/>
+      <c r="B34" s="10"/>
+      <c r="C34" s="10"/>
+      <c r="D34" s="10"/>
+      <c r="E34" s="10"/>
+      <c r="F34" s="10"/>
+      <c r="G34" s="10"/>
+      <c r="H34" s="10"/>
+      <c r="I34" s="10"/>
+      <c r="J34" s="10"/>
+      <c r="K34" s="10"/>
+      <c r="L34" s="10"/>
+      <c r="M34" s="10"/>
+      <c r="N34" s="10"/>
+      <c r="O34" s="10"/>
+      <c r="P34" s="10"/>
+      <c r="Q34" s="10"/>
+      <c r="R34" s="10"/>
+      <c r="S34" s="10"/>
+      <c r="T34" s="10"/>
+    </row>
+    <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A35" s="10"/>
+      <c r="B35" s="10"/>
+      <c r="C35" s="10"/>
+      <c r="D35" s="10"/>
+      <c r="E35" s="10"/>
+      <c r="F35" s="10"/>
+      <c r="G35" s="10"/>
+      <c r="H35" s="10"/>
+      <c r="I35" s="10"/>
+      <c r="J35" s="10"/>
+      <c r="K35" s="10"/>
+      <c r="L35" s="10"/>
+      <c r="M35" s="10"/>
+      <c r="N35" s="10"/>
+      <c r="O35" s="10"/>
+      <c r="P35" s="10"/>
+      <c r="Q35" s="10"/>
+      <c r="R35" s="10"/>
+      <c r="S35" s="10"/>
+      <c r="T35" s="10"/>
+    </row>
+    <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A36" s="10"/>
+      <c r="B36" s="10"/>
+      <c r="C36" s="10"/>
+      <c r="D36" s="10"/>
+      <c r="E36" s="10"/>
+      <c r="F36" s="10"/>
+      <c r="G36" s="10"/>
+      <c r="H36" s="10"/>
+      <c r="I36" s="10"/>
+      <c r="J36" s="10"/>
+      <c r="K36" s="10"/>
+      <c r="L36" s="10"/>
+      <c r="M36" s="10"/>
+      <c r="N36" s="10"/>
+      <c r="O36" s="10"/>
+      <c r="P36" s="10"/>
+      <c r="Q36" s="10"/>
+      <c r="R36" s="10"/>
+      <c r="S36" s="10"/>
+      <c r="T36" s="10"/>
+    </row>
+    <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A37" s="10"/>
+      <c r="B37" s="10"/>
+      <c r="C37" s="10"/>
+      <c r="D37" s="10"/>
+      <c r="E37" s="10"/>
+      <c r="F37" s="10"/>
+      <c r="G37" s="10"/>
+      <c r="H37" s="10"/>
+      <c r="I37" s="10"/>
+      <c r="J37" s="10"/>
+      <c r="K37" s="10"/>
+      <c r="L37" s="10"/>
+      <c r="M37" s="10"/>
+      <c r="N37" s="10"/>
+      <c r="O37" s="10"/>
+      <c r="P37" s="10"/>
+      <c r="Q37" s="10"/>
+      <c r="R37" s="10"/>
+      <c r="S37" s="10"/>
+      <c r="T37" s="10"/>
+    </row>
+    <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A38" s="10"/>
+      <c r="B38" s="10"/>
+      <c r="C38" s="10"/>
+      <c r="D38" s="10"/>
+      <c r="E38" s="10"/>
+      <c r="F38" s="10"/>
+      <c r="G38" s="10"/>
+      <c r="H38" s="10"/>
+      <c r="I38" s="10"/>
+      <c r="J38" s="10"/>
+      <c r="K38" s="10"/>
+      <c r="L38" s="10"/>
+      <c r="M38" s="10"/>
+      <c r="N38" s="10"/>
+      <c r="O38" s="10"/>
+      <c r="P38" s="10"/>
+      <c r="Q38" s="10"/>
+      <c r="R38" s="10"/>
+      <c r="S38" s="10"/>
+      <c r="T38" s="10"/>
+    </row>
+    <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A39" s="10"/>
+      <c r="B39" s="10"/>
+      <c r="C39" s="10"/>
+      <c r="D39" s="10"/>
+      <c r="E39" s="10"/>
+      <c r="F39" s="10"/>
+      <c r="G39" s="10"/>
+      <c r="H39" s="10"/>
+      <c r="I39" s="10"/>
+      <c r="J39" s="10"/>
+      <c r="K39" s="10"/>
+      <c r="L39" s="10"/>
+      <c r="M39" s="10"/>
+      <c r="N39" s="10"/>
+      <c r="O39" s="10"/>
+      <c r="P39" s="10"/>
+      <c r="Q39" s="10"/>
+      <c r="R39" s="10"/>
+      <c r="S39" s="10"/>
+      <c r="T39" s="10"/>
+    </row>
+    <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A40" s="10"/>
+      <c r="B40" s="10"/>
+      <c r="C40" s="10"/>
+      <c r="D40" s="10"/>
+      <c r="E40" s="10"/>
+      <c r="F40" s="10"/>
+      <c r="G40" s="10"/>
+      <c r="H40" s="10"/>
+      <c r="I40" s="10"/>
+      <c r="J40" s="10"/>
+      <c r="K40" s="10"/>
+      <c r="L40" s="10"/>
+      <c r="M40" s="10"/>
+      <c r="N40" s="10"/>
+      <c r="O40" s="10"/>
+      <c r="P40" s="10"/>
+      <c r="Q40" s="10"/>
+      <c r="R40" s="10"/>
+      <c r="S40" s="10"/>
+      <c r="T40" s="10"/>
+    </row>
+    <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A41" s="10"/>
+      <c r="B41" s="10"/>
+      <c r="C41" s="10"/>
+      <c r="D41" s="10"/>
+      <c r="E41" s="10"/>
+      <c r="F41" s="10"/>
+      <c r="G41" s="10"/>
+      <c r="H41" s="10"/>
+      <c r="I41" s="10"/>
+      <c r="J41" s="10"/>
+      <c r="K41" s="10"/>
+      <c r="L41" s="10"/>
+      <c r="M41" s="10"/>
+      <c r="N41" s="10"/>
+      <c r="O41" s="10"/>
+      <c r="P41" s="10"/>
+      <c r="Q41" s="10"/>
+      <c r="R41" s="10"/>
+      <c r="S41" s="10"/>
+      <c r="T41" s="10"/>
+    </row>
+    <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A42" s="10"/>
+      <c r="B42" s="10"/>
+      <c r="C42" s="10"/>
+      <c r="D42" s="10"/>
+      <c r="E42" s="10"/>
+      <c r="F42" s="10"/>
+      <c r="G42" s="10"/>
+      <c r="H42" s="10"/>
+      <c r="I42" s="10"/>
+      <c r="J42" s="10"/>
+      <c r="K42" s="10"/>
+      <c r="L42" s="10"/>
+      <c r="M42" s="10"/>
+      <c r="N42" s="10"/>
+      <c r="O42" s="10"/>
+      <c r="P42" s="10"/>
+      <c r="Q42" s="10"/>
+      <c r="R42" s="10"/>
+      <c r="S42" s="10"/>
+      <c r="T42" s="10"/>
+    </row>
+    <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A43" s="10"/>
+      <c r="B43" s="10"/>
+      <c r="C43" s="10"/>
+      <c r="D43" s="10"/>
+      <c r="E43" s="10"/>
+      <c r="F43" s="10"/>
+      <c r="G43" s="10"/>
+      <c r="H43" s="10"/>
+      <c r="I43" s="10"/>
+      <c r="J43" s="10"/>
+      <c r="K43" s="10"/>
+      <c r="L43" s="10"/>
+      <c r="M43" s="10"/>
+      <c r="N43" s="10"/>
+      <c r="O43" s="10"/>
+      <c r="P43" s="10"/>
+      <c r="Q43" s="10"/>
+      <c r="R43" s="10"/>
+      <c r="S43" s="10"/>
+      <c r="T43" s="10"/>
+    </row>
+    <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A44" s="10"/>
+      <c r="B44" s="10"/>
+      <c r="C44" s="10"/>
+      <c r="D44" s="10"/>
+      <c r="E44" s="10"/>
+      <c r="F44" s="10"/>
+      <c r="G44" s="10"/>
+      <c r="H44" s="10"/>
+      <c r="I44" s="10"/>
+      <c r="J44" s="10"/>
+      <c r="K44" s="10"/>
+      <c r="L44" s="10"/>
+      <c r="M44" s="10"/>
+      <c r="N44" s="10"/>
+      <c r="O44" s="10"/>
+      <c r="P44" s="10"/>
+      <c r="Q44" s="10"/>
+      <c r="R44" s="10"/>
+      <c r="S44" s="10"/>
+      <c r="T44" s="10"/>
+    </row>
+    <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A45" s="10"/>
+      <c r="B45" s="10"/>
+      <c r="C45" s="10"/>
+      <c r="D45" s="10"/>
+      <c r="E45" s="10"/>
+      <c r="F45" s="10"/>
+      <c r="G45" s="10"/>
+      <c r="H45" s="10"/>
+      <c r="I45" s="10"/>
+      <c r="J45" s="10"/>
+      <c r="K45" s="10"/>
+      <c r="L45" s="10"/>
+      <c r="M45" s="10"/>
+      <c r="N45" s="10"/>
+      <c r="O45" s="10"/>
+      <c r="P45" s="10"/>
+      <c r="Q45" s="10"/>
+      <c r="R45" s="10"/>
+      <c r="S45" s="10"/>
+      <c r="T45" s="10"/>
+    </row>
+    <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A46" s="10"/>
+      <c r="B46" s="10"/>
+      <c r="C46" s="10"/>
+      <c r="D46" s="10"/>
+      <c r="E46" s="10"/>
+      <c r="F46" s="10"/>
+      <c r="G46" s="10"/>
+      <c r="H46" s="10"/>
+      <c r="I46" s="10"/>
+      <c r="J46" s="10"/>
+      <c r="K46" s="10"/>
+      <c r="L46" s="10"/>
+      <c r="M46" s="10"/>
+      <c r="N46" s="10"/>
+      <c r="O46" s="10"/>
+      <c r="P46" s="10"/>
+      <c r="Q46" s="10"/>
+      <c r="R46" s="10"/>
+      <c r="S46" s="10"/>
+      <c r="T46" s="10"/>
+    </row>
+    <row r="47" customFormat="false" ht="22.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A47" s="10"/>
+      <c r="B47" s="10"/>
+      <c r="C47" s="10"/>
+      <c r="D47" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="E47" s="10"/>
+      <c r="F47" s="10"/>
+      <c r="G47" s="10"/>
+      <c r="H47" s="10"/>
+      <c r="I47" s="10"/>
+      <c r="J47" s="10"/>
+      <c r="K47" s="10"/>
+      <c r="L47" s="10"/>
+      <c r="M47" s="10"/>
+      <c r="N47" s="10"/>
+      <c r="O47" s="10"/>
+      <c r="P47" s="10"/>
+      <c r="Q47" s="10"/>
+      <c r="R47" s="10"/>
+      <c r="S47" s="10"/>
+      <c r="T47" s="10"/>
+    </row>
+    <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A48" s="10"/>
+      <c r="B48" s="10"/>
+      <c r="C48" s="10"/>
+      <c r="D48" s="10"/>
+      <c r="E48" s="10"/>
+      <c r="F48" s="10"/>
+      <c r="G48" s="10"/>
+      <c r="H48" s="10"/>
+      <c r="I48" s="10"/>
+      <c r="J48" s="10"/>
+      <c r="K48" s="10"/>
+      <c r="L48" s="10"/>
+      <c r="M48" s="10"/>
+      <c r="N48" s="10"/>
+      <c r="O48" s="10"/>
+      <c r="P48" s="10"/>
+      <c r="Q48" s="10"/>
+      <c r="R48" s="10"/>
+      <c r="S48" s="10"/>
+      <c r="T48" s="10"/>
+    </row>
+    <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A49" s="10"/>
+      <c r="B49" s="10"/>
+      <c r="C49" s="10"/>
+      <c r="D49" s="10"/>
+      <c r="E49" s="10"/>
+      <c r="F49" s="10"/>
+      <c r="G49" s="10"/>
+      <c r="H49" s="10"/>
+      <c r="I49" s="10"/>
+      <c r="J49" s="10"/>
+      <c r="K49" s="10"/>
+      <c r="L49" s="10"/>
+      <c r="M49" s="10"/>
+      <c r="N49" s="10"/>
+      <c r="O49" s="10"/>
+      <c r="P49" s="10"/>
+      <c r="Q49" s="10"/>
+      <c r="R49" s="10"/>
+      <c r="S49" s="10"/>
+      <c r="T49" s="10"/>
+    </row>
+    <row r="50" customFormat="false" ht="22.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A50" s="10"/>
+      <c r="B50" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="C50" s="12"/>
+      <c r="D50" s="12"/>
+      <c r="F50" s="10"/>
+      <c r="G50" s="10"/>
+      <c r="H50" s="10"/>
+      <c r="I50" s="10"/>
+      <c r="J50" s="10"/>
+      <c r="K50" s="10"/>
+      <c r="L50" s="10"/>
+      <c r="M50" s="10"/>
+      <c r="N50" s="10"/>
+      <c r="O50" s="10"/>
+      <c r="P50" s="10"/>
+      <c r="Q50" s="10"/>
+      <c r="R50" s="10"/>
+    </row>
+    <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A51" s="10"/>
+      <c r="B51" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="C51" s="13"/>
+      <c r="D51" s="13"/>
+      <c r="F51" s="10"/>
+      <c r="G51" s="10"/>
+      <c r="H51" s="10"/>
+      <c r="I51" s="10"/>
+      <c r="J51" s="10"/>
+      <c r="K51" s="10"/>
+      <c r="L51" s="10"/>
+      <c r="M51" s="10"/>
+      <c r="N51" s="10"/>
+      <c r="O51" s="10"/>
+      <c r="P51" s="10"/>
+      <c r="Q51" s="10"/>
+      <c r="R51" s="10"/>
+    </row>
+    <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A52" s="10"/>
+      <c r="C52" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="D52" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="E52" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="F52" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="G52" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="H52" s="10"/>
+      <c r="I52" s="10"/>
+      <c r="J52" s="10"/>
+      <c r="K52" s="10"/>
+      <c r="L52" s="10"/>
+      <c r="M52" s="10"/>
+      <c r="N52" s="10"/>
+      <c r="O52" s="10"/>
+      <c r="P52" s="10"/>
+      <c r="Q52" s="10"/>
+      <c r="R52" s="10"/>
+      <c r="S52" s="10"/>
+      <c r="T52" s="10"/>
+    </row>
+    <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B53" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="H12" s="14" t="n">
-        <f aca="false">H10</f>
-        <v>2.86274175683735</v>
-      </c>
-      <c r="I12" s="14" t="s">
-        <v>1</v>
-      </c>
-      <c r="L12" s="14" t="s">
-        <v>30</v>
-      </c>
-      <c r="M12" s="14" t="n">
-        <f aca="false">M10/(1-M10)</f>
-        <v>0.691941761568401</v>
-      </c>
-    </row>
-    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B13" s="14" t="s">
-        <v>31</v>
-      </c>
-      <c r="C13" s="14" t="n">
-        <f aca="false">(1/C8)/(1-C10)</f>
-        <v>7.89130434782609</v>
-      </c>
-      <c r="D13" s="17"/>
-      <c r="E13" s="17"/>
-      <c r="G13" s="14" t="s">
-        <v>31</v>
-      </c>
-      <c r="H13" s="14" t="n">
-        <f aca="false">H7</f>
-        <v>8</v>
-      </c>
-      <c r="I13" s="14" t="s">
-        <v>1</v>
-      </c>
-      <c r="L13" s="14" t="s">
-        <v>31</v>
-      </c>
-      <c r="M13" s="14" t="n">
-        <f aca="false">(1/M8)/(1-M10)</f>
-        <v>5.0758252847052</v>
-      </c>
-    </row>
-    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B14" s="18" t="s">
-        <v>32</v>
-      </c>
-      <c r="C14" s="0" t="n">
-        <f aca="false">C12 -C10</f>
-        <v>1.01060007186489</v>
-      </c>
-      <c r="D14" s="19" t="n">
-        <v>1.0013</v>
-      </c>
-      <c r="E14" s="14" t="n">
-        <v>0.16</v>
-      </c>
-      <c r="L14" s="18" t="s">
-        <v>32</v>
-      </c>
-      <c r="M14" s="0" t="n">
-        <f aca="false">M12 -M10</f>
-        <v>0.28297865344878</v>
-      </c>
-      <c r="N14" s="19" t="n">
-        <v>0.2674</v>
-      </c>
-      <c r="O14" s="14" t="n">
-        <v>0.04</v>
-      </c>
-    </row>
-    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B15" s="18" t="s">
-        <v>33</v>
-      </c>
-      <c r="C15" s="0" t="n">
-        <f aca="false">C13-C7</f>
-        <v>4.89130434782609</v>
-      </c>
-      <c r="D15" s="19" t="n">
-        <v>4.4847</v>
-      </c>
-      <c r="E15" s="14" t="n">
-        <v>0.6</v>
-      </c>
-      <c r="L15" s="18" t="s">
-        <v>33</v>
-      </c>
-      <c r="M15" s="0" t="n">
-        <f aca="false">M13-M7</f>
-        <v>2.0758252847052</v>
-      </c>
-      <c r="N15" s="19" t="n">
-        <v>1.905</v>
-      </c>
-      <c r="O15" s="14" t="n">
-        <v>0.28</v>
-      </c>
-    </row>
-    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="14"/>
-      <c r="B20" s="14"/>
-      <c r="C20" s="14"/>
-      <c r="D20" s="14"/>
-      <c r="E20" s="14"/>
-      <c r="F20" s="14"/>
-      <c r="G20" s="14"/>
-      <c r="H20" s="14"/>
-      <c r="I20" s="14"/>
-      <c r="J20" s="14"/>
-      <c r="K20" s="14"/>
-      <c r="L20" s="14"/>
-      <c r="M20" s="14"/>
-      <c r="N20" s="14"/>
-      <c r="O20" s="14"/>
-      <c r="P20" s="14"/>
-      <c r="Q20" s="14"/>
-      <c r="R20" s="14"/>
-    </row>
-    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="14"/>
-      <c r="B21" s="14"/>
-      <c r="C21" s="14"/>
-      <c r="D21" s="14"/>
-      <c r="E21" s="14"/>
-      <c r="F21" s="14"/>
-      <c r="G21" s="14"/>
-      <c r="H21" s="14"/>
-      <c r="I21" s="14"/>
-      <c r="J21" s="14"/>
-      <c r="K21" s="14"/>
-      <c r="L21" s="14"/>
-      <c r="M21" s="14"/>
-      <c r="N21" s="14"/>
-      <c r="O21" s="14"/>
-      <c r="P21" s="14"/>
-      <c r="Q21" s="14"/>
-      <c r="R21" s="14"/>
-    </row>
-    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="14"/>
-      <c r="B22" s="14"/>
-      <c r="C22" s="14"/>
-      <c r="D22" s="14"/>
-      <c r="E22" s="14"/>
-      <c r="F22" s="14"/>
-      <c r="G22" s="14"/>
-      <c r="H22" s="14"/>
-      <c r="I22" s="14"/>
-      <c r="J22" s="14"/>
-      <c r="K22" s="14"/>
-      <c r="L22" s="14"/>
-      <c r="M22" s="14"/>
-      <c r="N22" s="14"/>
-      <c r="O22" s="14"/>
-      <c r="P22" s="14"/>
-      <c r="Q22" s="14"/>
-      <c r="R22" s="14"/>
-    </row>
-    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="14"/>
-      <c r="B23" s="14"/>
-      <c r="C23" s="14"/>
-      <c r="D23" s="14"/>
-      <c r="E23" s="14"/>
-      <c r="F23" s="14"/>
-      <c r="G23" s="14"/>
-      <c r="H23" s="14"/>
-      <c r="I23" s="14"/>
-      <c r="J23" s="14"/>
-      <c r="K23" s="14"/>
-      <c r="L23" s="14"/>
-      <c r="M23" s="14"/>
-      <c r="N23" s="14"/>
-      <c r="O23" s="14"/>
-      <c r="P23" s="14"/>
-      <c r="Q23" s="14"/>
-      <c r="R23" s="14"/>
-    </row>
-    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="14"/>
-      <c r="B24" s="14"/>
-      <c r="C24" s="14"/>
-      <c r="D24" s="14"/>
-      <c r="E24" s="14"/>
-      <c r="F24" s="14"/>
-      <c r="G24" s="14"/>
-      <c r="H24" s="14"/>
-      <c r="I24" s="14"/>
-      <c r="J24" s="14"/>
-      <c r="K24" s="14"/>
-      <c r="L24" s="14"/>
-      <c r="M24" s="14"/>
-      <c r="N24" s="14"/>
-      <c r="O24" s="14"/>
-      <c r="P24" s="14"/>
-      <c r="Q24" s="14"/>
-      <c r="R24" s="14"/>
-    </row>
-    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="14"/>
-      <c r="B25" s="14"/>
-      <c r="C25" s="14"/>
-      <c r="D25" s="14"/>
-      <c r="E25" s="14"/>
-      <c r="F25" s="14"/>
-      <c r="G25" s="14"/>
-      <c r="H25" s="14"/>
-      <c r="I25" s="14"/>
-      <c r="J25" s="14"/>
-      <c r="K25" s="14"/>
-      <c r="L25" s="14"/>
-      <c r="M25" s="14"/>
-      <c r="N25" s="14"/>
-      <c r="O25" s="14"/>
-      <c r="P25" s="14"/>
-      <c r="Q25" s="14"/>
-      <c r="R25" s="14"/>
-    </row>
-    <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="14"/>
-      <c r="B26" s="14"/>
-      <c r="C26" s="14"/>
-      <c r="D26" s="14"/>
-      <c r="E26" s="14"/>
-      <c r="F26" s="14"/>
-      <c r="G26" s="14"/>
-      <c r="H26" s="14"/>
-      <c r="I26" s="14"/>
-      <c r="J26" s="14"/>
-      <c r="K26" s="14"/>
-      <c r="L26" s="14"/>
-      <c r="M26" s="14"/>
-      <c r="N26" s="14"/>
-      <c r="O26" s="14"/>
-      <c r="P26" s="14"/>
-      <c r="Q26" s="14"/>
-      <c r="R26" s="14"/>
-    </row>
-    <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="14"/>
-      <c r="B27" s="14"/>
-      <c r="C27" s="14"/>
-      <c r="D27" s="14"/>
-      <c r="E27" s="14"/>
-      <c r="F27" s="14"/>
-      <c r="G27" s="14"/>
-      <c r="H27" s="14"/>
-      <c r="I27" s="14"/>
-      <c r="J27" s="14"/>
-      <c r="K27" s="14"/>
-      <c r="L27" s="14"/>
-      <c r="M27" s="14"/>
-      <c r="N27" s="14"/>
-      <c r="O27" s="14"/>
-      <c r="P27" s="14"/>
-      <c r="Q27" s="14"/>
-      <c r="R27" s="14"/>
-    </row>
-    <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="14"/>
-      <c r="B28" s="14"/>
-      <c r="C28" s="14"/>
-      <c r="D28" s="14"/>
-      <c r="E28" s="14"/>
-      <c r="F28" s="14"/>
-      <c r="G28" s="14"/>
-      <c r="H28" s="14"/>
-      <c r="I28" s="14"/>
-      <c r="J28" s="14"/>
-      <c r="K28" s="14"/>
-      <c r="L28" s="14"/>
-      <c r="M28" s="14"/>
-      <c r="N28" s="14"/>
-      <c r="O28" s="14"/>
-      <c r="P28" s="14"/>
-      <c r="Q28" s="14"/>
-      <c r="R28" s="14"/>
-    </row>
-    <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="14"/>
-      <c r="B29" s="14"/>
-      <c r="C29" s="14"/>
-      <c r="D29" s="14"/>
-      <c r="E29" s="14"/>
-      <c r="F29" s="14"/>
-      <c r="G29" s="14"/>
-      <c r="H29" s="14"/>
-      <c r="I29" s="14"/>
-      <c r="J29" s="14"/>
-      <c r="K29" s="14"/>
-      <c r="L29" s="14"/>
-      <c r="M29" s="14"/>
-      <c r="N29" s="14"/>
-      <c r="O29" s="14"/>
-      <c r="P29" s="14"/>
-      <c r="Q29" s="14"/>
-      <c r="R29" s="14"/>
-    </row>
-    <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="14"/>
-      <c r="B30" s="14"/>
-      <c r="C30" s="14"/>
-      <c r="D30" s="14"/>
-      <c r="E30" s="14"/>
-      <c r="F30" s="14"/>
-      <c r="G30" s="14"/>
-      <c r="H30" s="14"/>
-      <c r="I30" s="14"/>
-      <c r="J30" s="14"/>
-      <c r="K30" s="14"/>
-      <c r="L30" s="14"/>
-      <c r="M30" s="14"/>
-      <c r="N30" s="14"/>
-      <c r="O30" s="14"/>
-      <c r="P30" s="14"/>
-      <c r="Q30" s="14"/>
-      <c r="R30" s="14"/>
-    </row>
-    <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="14"/>
-      <c r="B31" s="14"/>
-      <c r="C31" s="14"/>
-      <c r="D31" s="14"/>
-      <c r="E31" s="14"/>
-      <c r="F31" s="14"/>
-      <c r="G31" s="14"/>
-      <c r="H31" s="14"/>
-      <c r="I31" s="14"/>
-      <c r="J31" s="14"/>
-      <c r="K31" s="14"/>
-      <c r="L31" s="14"/>
-      <c r="M31" s="14"/>
-      <c r="N31" s="14"/>
-      <c r="O31" s="14"/>
-      <c r="P31" s="14"/>
-      <c r="Q31" s="14"/>
-      <c r="R31" s="14"/>
-    </row>
-    <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="14"/>
-      <c r="B32" s="14"/>
-      <c r="C32" s="14"/>
-      <c r="D32" s="14"/>
-      <c r="E32" s="14"/>
-      <c r="F32" s="14"/>
-      <c r="G32" s="14"/>
-      <c r="H32" s="14"/>
-      <c r="I32" s="14"/>
-      <c r="J32" s="14"/>
-      <c r="K32" s="14"/>
-      <c r="L32" s="14"/>
-      <c r="M32" s="14"/>
-      <c r="N32" s="14"/>
-      <c r="O32" s="14"/>
-      <c r="P32" s="14"/>
-      <c r="Q32" s="14"/>
-      <c r="R32" s="14"/>
-    </row>
-    <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="14"/>
-      <c r="B33" s="14"/>
-      <c r="C33" s="14"/>
-      <c r="D33" s="14"/>
-      <c r="E33" s="14"/>
-      <c r="F33" s="14"/>
-      <c r="G33" s="14"/>
-      <c r="H33" s="14"/>
-      <c r="I33" s="14"/>
-      <c r="J33" s="14"/>
-      <c r="K33" s="14"/>
-      <c r="L33" s="14"/>
-      <c r="M33" s="14"/>
-      <c r="N33" s="14"/>
-      <c r="O33" s="14"/>
-      <c r="P33" s="14"/>
-      <c r="Q33" s="14"/>
-      <c r="R33" s="14"/>
-    </row>
-    <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="14"/>
-      <c r="B34" s="14"/>
-      <c r="C34" s="14"/>
-      <c r="D34" s="14"/>
-      <c r="E34" s="14"/>
-      <c r="F34" s="14"/>
-      <c r="G34" s="14"/>
-      <c r="H34" s="14"/>
-      <c r="I34" s="14"/>
-      <c r="J34" s="14"/>
-      <c r="K34" s="14"/>
-      <c r="L34" s="14"/>
-      <c r="M34" s="14"/>
-      <c r="N34" s="14"/>
-      <c r="O34" s="14"/>
-      <c r="P34" s="14"/>
-      <c r="Q34" s="14"/>
-      <c r="R34" s="14"/>
-    </row>
-    <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="14"/>
-      <c r="B35" s="14"/>
-      <c r="C35" s="14"/>
-      <c r="D35" s="14"/>
-      <c r="E35" s="14"/>
-      <c r="F35" s="14"/>
-      <c r="G35" s="14"/>
-      <c r="H35" s="14"/>
-      <c r="I35" s="14"/>
-      <c r="J35" s="14"/>
-      <c r="K35" s="14"/>
-      <c r="L35" s="14"/>
-      <c r="M35" s="14"/>
-      <c r="N35" s="14"/>
-      <c r="O35" s="14"/>
-      <c r="P35" s="14"/>
-      <c r="Q35" s="14"/>
-      <c r="R35" s="14"/>
-    </row>
-    <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="14"/>
-      <c r="B36" s="14"/>
-      <c r="C36" s="14"/>
-      <c r="D36" s="14"/>
-      <c r="E36" s="14"/>
-      <c r="F36" s="14"/>
-      <c r="G36" s="14"/>
-      <c r="H36" s="14"/>
-      <c r="I36" s="14"/>
-      <c r="J36" s="14"/>
-      <c r="K36" s="14"/>
-      <c r="L36" s="14"/>
-      <c r="M36" s="14"/>
-      <c r="N36" s="14"/>
-      <c r="O36" s="14"/>
-      <c r="P36" s="14"/>
-      <c r="Q36" s="14"/>
-      <c r="R36" s="14"/>
-    </row>
-    <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="14"/>
-      <c r="B37" s="14"/>
-      <c r="C37" s="14"/>
-      <c r="D37" s="14"/>
-      <c r="E37" s="14"/>
-      <c r="F37" s="14"/>
-      <c r="G37" s="14"/>
-      <c r="H37" s="14"/>
-      <c r="I37" s="14"/>
-      <c r="J37" s="14"/>
-      <c r="K37" s="14"/>
-      <c r="L37" s="14"/>
-      <c r="M37" s="14"/>
-      <c r="N37" s="14"/>
-      <c r="O37" s="14"/>
-      <c r="P37" s="14"/>
-      <c r="Q37" s="14"/>
-      <c r="R37" s="14"/>
-    </row>
-    <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="14"/>
-      <c r="B38" s="14"/>
-      <c r="C38" s="14"/>
-      <c r="D38" s="14"/>
-      <c r="E38" s="14"/>
-      <c r="F38" s="14"/>
-      <c r="G38" s="14"/>
-      <c r="H38" s="14"/>
-      <c r="I38" s="14"/>
-      <c r="J38" s="14"/>
-      <c r="K38" s="14"/>
-      <c r="L38" s="14"/>
-      <c r="M38" s="14"/>
-      <c r="N38" s="14"/>
-      <c r="O38" s="14"/>
-      <c r="P38" s="14"/>
-      <c r="Q38" s="14"/>
-      <c r="R38" s="14"/>
-    </row>
-    <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A39" s="14"/>
-      <c r="B39" s="14"/>
-      <c r="C39" s="14"/>
-      <c r="D39" s="14"/>
-      <c r="E39" s="14"/>
-      <c r="F39" s="14"/>
-      <c r="G39" s="14"/>
-      <c r="H39" s="14"/>
-      <c r="I39" s="14"/>
-      <c r="J39" s="14"/>
-      <c r="K39" s="14"/>
-      <c r="L39" s="14"/>
-      <c r="M39" s="14"/>
-      <c r="N39" s="14"/>
-      <c r="O39" s="14"/>
-      <c r="P39" s="14"/>
-      <c r="Q39" s="14"/>
-      <c r="R39" s="14"/>
-    </row>
-    <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A40" s="14"/>
-      <c r="B40" s="14"/>
-      <c r="C40" s="14"/>
-      <c r="D40" s="14"/>
-      <c r="E40" s="14"/>
-      <c r="F40" s="14"/>
-      <c r="G40" s="14"/>
-      <c r="H40" s="14"/>
-      <c r="I40" s="14"/>
-      <c r="J40" s="14"/>
-      <c r="K40" s="14"/>
-      <c r="L40" s="14"/>
-      <c r="M40" s="14"/>
-      <c r="N40" s="14"/>
-      <c r="O40" s="14"/>
-      <c r="P40" s="14"/>
-      <c r="Q40" s="14"/>
-      <c r="R40" s="14"/>
-    </row>
-    <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A41" s="14"/>
-      <c r="B41" s="14"/>
-      <c r="C41" s="14"/>
-      <c r="D41" s="14"/>
-      <c r="E41" s="14"/>
-      <c r="F41" s="14"/>
-      <c r="G41" s="14"/>
-      <c r="H41" s="14"/>
-      <c r="I41" s="14"/>
-      <c r="J41" s="14"/>
-      <c r="K41" s="14"/>
-      <c r="L41" s="14"/>
-      <c r="M41" s="14"/>
-      <c r="N41" s="14"/>
-      <c r="O41" s="14"/>
-      <c r="P41" s="14"/>
-      <c r="Q41" s="14"/>
-      <c r="R41" s="14"/>
-    </row>
-    <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A42" s="14"/>
-      <c r="B42" s="14"/>
-      <c r="C42" s="14"/>
-      <c r="D42" s="14"/>
-      <c r="E42" s="14"/>
-      <c r="F42" s="14"/>
-      <c r="G42" s="14"/>
-      <c r="H42" s="14"/>
-      <c r="I42" s="14"/>
-      <c r="J42" s="14"/>
-      <c r="K42" s="14"/>
-      <c r="L42" s="14"/>
-      <c r="M42" s="14"/>
-      <c r="N42" s="14"/>
-      <c r="O42" s="14"/>
-      <c r="P42" s="14"/>
-      <c r="Q42" s="14"/>
-      <c r="R42" s="14"/>
-    </row>
-    <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A43" s="14"/>
-      <c r="B43" s="14"/>
-      <c r="C43" s="14"/>
-      <c r="D43" s="14"/>
-      <c r="E43" s="14"/>
-      <c r="F43" s="14"/>
-      <c r="G43" s="14"/>
-      <c r="H43" s="14"/>
-      <c r="I43" s="14"/>
-      <c r="J43" s="14"/>
-      <c r="K43" s="14"/>
-      <c r="L43" s="14"/>
-      <c r="M43" s="14"/>
-      <c r="N43" s="14"/>
-      <c r="O43" s="14"/>
-      <c r="P43" s="14"/>
-      <c r="Q43" s="14"/>
-      <c r="R43" s="14"/>
-    </row>
-    <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A44" s="14"/>
-      <c r="B44" s="14"/>
-      <c r="C44" s="14"/>
-      <c r="D44" s="14"/>
-      <c r="E44" s="14"/>
-      <c r="F44" s="14"/>
-      <c r="G44" s="14"/>
-      <c r="H44" s="14"/>
-      <c r="I44" s="14"/>
-      <c r="J44" s="14"/>
-      <c r="K44" s="14"/>
-      <c r="L44" s="14"/>
-      <c r="M44" s="14"/>
-      <c r="N44" s="14"/>
-      <c r="O44" s="14"/>
-      <c r="P44" s="14"/>
-      <c r="Q44" s="14"/>
-      <c r="R44" s="14"/>
-    </row>
-    <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A45" s="14"/>
-      <c r="B45" s="14"/>
-      <c r="C45" s="14"/>
-      <c r="D45" s="14"/>
-      <c r="E45" s="14"/>
-      <c r="F45" s="14"/>
-      <c r="G45" s="14"/>
-      <c r="H45" s="14"/>
-      <c r="I45" s="14"/>
-      <c r="J45" s="14"/>
-      <c r="K45" s="14"/>
-      <c r="L45" s="14"/>
-      <c r="M45" s="14"/>
-      <c r="N45" s="14"/>
-      <c r="O45" s="14"/>
-      <c r="P45" s="14"/>
-      <c r="Q45" s="14"/>
-      <c r="R45" s="14"/>
-    </row>
-    <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A46" s="14"/>
-      <c r="B46" s="14"/>
-      <c r="C46" s="14"/>
-      <c r="D46" s="14"/>
-      <c r="E46" s="14"/>
-      <c r="F46" s="14"/>
-      <c r="G46" s="14"/>
-      <c r="H46" s="14"/>
-      <c r="I46" s="14"/>
-      <c r="J46" s="14"/>
-      <c r="K46" s="14"/>
-      <c r="L46" s="14"/>
-      <c r="M46" s="14"/>
-      <c r="N46" s="14"/>
-      <c r="O46" s="14"/>
-      <c r="P46" s="14"/>
-      <c r="Q46" s="14"/>
-      <c r="R46" s="14"/>
-    </row>
-    <row r="47" customFormat="false" ht="22.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A47" s="14"/>
-      <c r="B47" s="14"/>
-      <c r="C47" s="14"/>
-      <c r="D47" s="20" t="s">
-        <v>21</v>
-      </c>
-      <c r="E47" s="14"/>
-      <c r="F47" s="14"/>
-      <c r="G47" s="14"/>
-      <c r="H47" s="14"/>
-      <c r="I47" s="14"/>
-      <c r="J47" s="14"/>
-      <c r="K47" s="14"/>
-      <c r="L47" s="14"/>
-      <c r="M47" s="14"/>
-      <c r="N47" s="14"/>
-      <c r="O47" s="14"/>
-      <c r="P47" s="14"/>
-      <c r="Q47" s="14"/>
-      <c r="R47" s="14"/>
-    </row>
-    <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A48" s="14"/>
-      <c r="B48" s="14"/>
-      <c r="C48" s="14"/>
-      <c r="D48" s="14"/>
-      <c r="E48" s="14"/>
-      <c r="F48" s="14"/>
-      <c r="G48" s="14"/>
-      <c r="H48" s="14"/>
-      <c r="I48" s="14"/>
-      <c r="J48" s="14"/>
-      <c r="K48" s="14"/>
-      <c r="L48" s="14"/>
-      <c r="M48" s="14"/>
-      <c r="N48" s="14"/>
-      <c r="O48" s="14"/>
-      <c r="P48" s="14"/>
-      <c r="Q48" s="14"/>
-      <c r="R48" s="14"/>
-    </row>
-    <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A49" s="14"/>
-      <c r="B49" s="14"/>
-      <c r="C49" s="14"/>
-      <c r="D49" s="14"/>
-      <c r="E49" s="14"/>
-      <c r="F49" s="14"/>
-      <c r="G49" s="14"/>
-      <c r="H49" s="14"/>
-      <c r="I49" s="14"/>
-      <c r="J49" s="14"/>
-      <c r="K49" s="14"/>
-      <c r="L49" s="14"/>
-      <c r="M49" s="14"/>
-      <c r="N49" s="14"/>
-      <c r="O49" s="14"/>
-      <c r="P49" s="14"/>
-      <c r="Q49" s="14"/>
-      <c r="R49" s="14"/>
-    </row>
-    <row r="50" customFormat="false" ht="22.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A50" s="14"/>
-      <c r="B50" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="C50" s="11"/>
-      <c r="D50" s="11"/>
-      <c r="F50" s="14"/>
-      <c r="G50" s="14"/>
-      <c r="H50" s="14"/>
-      <c r="I50" s="14"/>
-      <c r="J50" s="14"/>
-      <c r="K50" s="14"/>
-      <c r="L50" s="14"/>
-      <c r="M50" s="14"/>
-      <c r="N50" s="14"/>
-      <c r="O50" s="14"/>
-      <c r="P50" s="14"/>
-      <c r="Q50" s="14"/>
-    </row>
-    <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A51" s="14"/>
-      <c r="B51" s="12" t="s">
-        <v>16</v>
-      </c>
-      <c r="C51" s="12"/>
-      <c r="D51" s="12"/>
-      <c r="F51" s="14"/>
-      <c r="G51" s="14"/>
-      <c r="H51" s="14"/>
-      <c r="I51" s="14"/>
-      <c r="J51" s="14"/>
-      <c r="K51" s="14"/>
-      <c r="L51" s="14"/>
-      <c r="M51" s="14"/>
-      <c r="N51" s="14"/>
-      <c r="O51" s="14"/>
-      <c r="P51" s="14"/>
-      <c r="Q51" s="14"/>
-    </row>
-    <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A52" s="14"/>
-      <c r="C52" s="13" t="s">
-        <v>25</v>
-      </c>
-      <c r="D52" s="13" t="s">
-        <v>26</v>
-      </c>
-      <c r="E52" s="13" t="s">
-        <v>27</v>
-      </c>
-      <c r="F52" s="14"/>
-      <c r="G52" s="14"/>
-      <c r="H52" s="14"/>
-      <c r="I52" s="14"/>
-      <c r="J52" s="14"/>
-      <c r="K52" s="14"/>
-      <c r="L52" s="14"/>
-      <c r="M52" s="14"/>
-      <c r="N52" s="14"/>
-      <c r="O52" s="14"/>
-      <c r="P52" s="14"/>
-      <c r="Q52" s="14"/>
-      <c r="R52" s="14"/>
-    </row>
-    <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B53" s="14" t="s">
-        <v>28</v>
-      </c>
-      <c r="C53" s="14" t="n">
+      <c r="C53" s="10" t="n">
         <f aca="false">Foglio1!E33</f>
         <v>3</v>
       </c>
@@ -3042,10 +3215,10 @@
       <c r="E53" s="15"/>
     </row>
     <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B54" s="14" t="s">
-        <v>29</v>
-      </c>
-      <c r="C54" s="14" t="n">
+      <c r="B54" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="C54" s="10" t="n">
         <f aca="false">Foglio1!E34</f>
         <v>0.333333333333333</v>
       </c>
@@ -3053,10 +3226,10 @@
       <c r="E54" s="15"/>
     </row>
     <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B55" s="14" t="s">
+      <c r="B55" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="C55" s="14" t="n">
+      <c r="C55" s="10" t="n">
         <f aca="false">Foglio1!E35</f>
         <v>0.137741046831956</v>
       </c>
@@ -3067,77 +3240,101 @@
       <c r="B56" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="C56" s="14" t="n">
+      <c r="C56" s="16" t="n">
         <f aca="false">Foglio1!E36</f>
         <v>0.413223140495868</v>
       </c>
-      <c r="D56" s="19" t="n">
+      <c r="D56" s="20" t="n">
         <v>0.4128</v>
       </c>
-      <c r="E56" s="14" t="n">
+      <c r="E56" s="10" t="n">
         <v>0.02</v>
       </c>
+      <c r="F56" s="0" t="n">
+        <f aca="false">(1/1.96) * SQRT(100) * E56</f>
+        <v>0.102040816326531</v>
+      </c>
+      <c r="G56" s="0" t="n">
+        <f aca="false">1.645 * (F56/SQRT(100))</f>
+        <v>0.0167857142857143</v>
+      </c>
     </row>
     <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B58" s="14" t="s">
-        <v>30</v>
-      </c>
-      <c r="C58" s="14" t="n">
+      <c r="B58" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="C58" s="10" t="n">
         <f aca="false">C56/(1-C56)</f>
         <v>0.704225352112677</v>
       </c>
-      <c r="D58" s="17"/>
-      <c r="E58" s="17"/>
+      <c r="D58" s="18"/>
+      <c r="E58" s="18"/>
     </row>
     <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B59" s="14" t="s">
-        <v>31</v>
-      </c>
-      <c r="C59" s="14" t="n">
+      <c r="B59" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="C59" s="10" t="n">
         <f aca="false">(1/C54)/(1-C56)</f>
         <v>5.11267605633803</v>
       </c>
-      <c r="D59" s="17"/>
-      <c r="E59" s="17"/>
+      <c r="D59" s="18"/>
+      <c r="E59" s="18"/>
     </row>
     <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B60" s="18" t="s">
-        <v>32</v>
-      </c>
-      <c r="C60" s="0" t="n">
+      <c r="B60" s="14" t="s">
+        <v>34</v>
+      </c>
+      <c r="C60" s="19" t="n">
         <f aca="false">C58 -C56</f>
         <v>0.291002211616809</v>
       </c>
-      <c r="D60" s="0" t="n">
+      <c r="D60" s="20" t="n">
         <v>0.3011</v>
       </c>
-      <c r="E60" s="14" t="n">
+      <c r="E60" s="10" t="n">
         <v>0.06</v>
       </c>
+      <c r="F60" s="0" t="n">
+        <f aca="false">(1/1.96) * SQRT(100) * E60</f>
+        <v>0.306122448979592</v>
+      </c>
+      <c r="G60" s="0" t="n">
+        <f aca="false">1.645 * (F60/SQRT(100))</f>
+        <v>0.0503571428571429</v>
+      </c>
     </row>
     <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B61" s="18" t="s">
-        <v>33</v>
-      </c>
-      <c r="C61" s="0" t="n">
+      <c r="B61" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="C61" s="19" t="n">
         <f aca="false">C59-C53</f>
         <v>2.11267605633803</v>
       </c>
-      <c r="D61" s="0" t="n">
+      <c r="D61" s="20" t="n">
         <v>2.1186</v>
       </c>
-      <c r="E61" s="14" t="n">
+      <c r="E61" s="10" t="n">
         <v>0.34</v>
+      </c>
+      <c r="F61" s="0" t="n">
+        <f aca="false">(1/1.96) * SQRT(100) * E61</f>
+        <v>1.73469387755102</v>
+      </c>
+      <c r="G61" s="0" t="n">
+        <f aca="false">1.645 * (F61/SQRT(100))</f>
+        <v>0.285357142857143</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="8">
     <mergeCell ref="B4:D4"/>
-    <mergeCell ref="G4:I4"/>
-    <mergeCell ref="L4:O4"/>
+    <mergeCell ref="I4:K4"/>
+    <mergeCell ref="N4:Q4"/>
     <mergeCell ref="B5:D5"/>
-    <mergeCell ref="G5:I5"/>
-    <mergeCell ref="L5:O5"/>
+    <mergeCell ref="I5:K5"/>
+    <mergeCell ref="N5:Q5"/>
     <mergeCell ref="B50:D50"/>
     <mergeCell ref="B51:D51"/>
   </mergeCells>
@@ -3153,16 +3350,16 @@
       <formula>Sheet2!$C$15+Sheet2!$E$15</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N14">
+  <conditionalFormatting sqref="P14">
     <cfRule type="cellIs" priority="4" operator="between" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
-      <formula>Sheet2!$M$14-Sheet2!$O$14</formula>
-      <formula>Sheet2!$M$14+Sheet2!$O$14</formula>
+      <formula>Sheet2!$O$14-Sheet2!$Q$14</formula>
+      <formula>Sheet2!$O$14+Sheet2!$Q$14</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N15">
+  <conditionalFormatting sqref="P15">
     <cfRule type="cellIs" priority="5" operator="between" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
-      <formula>Sheet2!$M$15-Sheet2!$O$15</formula>
-      <formula>Sheet2!$M$15+Sheet2!$O$15</formula>
+      <formula>Sheet2!$O$15-Sheet2!$Q$15</formula>
+      <formula>Sheet2!$O$15+Sheet2!$Q$15</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D60">
@@ -3183,6 +3380,60 @@
       <formula>Sheet2!$C$56+Sheet2!$E$56</formula>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="C10">
+    <cfRule type="cellIs" priority="9" operator="between" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="2">
+      <formula>Sheet2!$D$10-Sheet2!$G$10</formula>
+      <formula>Sheet2!$D$10+Sheet2!$G$10</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C14">
+    <cfRule type="cellIs" priority="10" operator="between" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="3">
+      <formula>Sheet2!$D$14-Sheet2!$G$14</formula>
+      <formula>Sheet2!$D$14+Sheet2!$G$14</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C15">
+    <cfRule type="cellIs" priority="11" operator="between" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="3">
+      <formula>Sheet2!$D$15-Sheet2!$G$15</formula>
+      <formula>Sheet2!$D$15+Sheet2!$G$15</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O14">
+    <cfRule type="cellIs" priority="12" operator="between" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="3">
+      <formula>Sheet2!$P$14-Sheet2!$S$14</formula>
+      <formula>Sheet2!$P$14+Sheet2!$S$14</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O10">
+    <cfRule type="cellIs" priority="13" operator="between" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="3">
+      <formula>Sheet2!$P$10-Sheet2!$S$10</formula>
+      <formula>Sheet2!$P$10+Sheet2!$S$10</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O15">
+    <cfRule type="cellIs" priority="14" operator="between" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="3">
+      <formula>Sheet2!$P$15-Sheet2!$S$15</formula>
+      <formula>Sheet2!$P$15+Sheet2!$S$15</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C56">
+    <cfRule type="cellIs" priority="15" operator="between" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="3">
+      <formula>Sheet2!$D$56-Sheet2!$G$56</formula>
+      <formula>Sheet2!$D$56+Sheet2!$G$56</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C60">
+    <cfRule type="cellIs" priority="16" operator="between" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="3">
+      <formula>Sheet2!$D$60-Sheet2!$G$60</formula>
+      <formula>Sheet2!$D$60+Sheet2!$G$60</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C61">
+    <cfRule type="cellIs" priority="17" operator="between" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="3">
+      <formula>Sheet2!$D$61-Sheet2!$G$61</formula>
+      <formula>Sheet2!$D$61+Sheet2!$G$61</formula>
+    </cfRule>
+  </conditionalFormatting>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
   <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>

--- a/data/parametri_teorici_modelli.xlsx
+++ b/data/parametri_teorici_modelli.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="42">
   <si>
     <t xml:space="preserve">r_xy</t>
   </si>
@@ -150,6 +150,24 @@
   </si>
   <si>
     <t xml:space="preserve">Tw</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Confronto</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Originale</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Migliorato</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cassa 1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cassa 2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cassa 3</t>
   </si>
 </sst>
 </file>
@@ -256,7 +274,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="9">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -289,6 +307,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FF000000"/>
+        <bgColor rgb="FF003300"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFA9D08E"/>
         <bgColor rgb="FFC6E0B4"/>
       </patternFill>
@@ -306,7 +330,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="4">
     <border diagonalUp="false" diagonalDown="false">
       <left/>
       <right/>
@@ -329,8 +353,22 @@
       </bottom>
       <diagonal/>
     </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left/>
+      <right style="thin"/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left style="thin"/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="27">
+  <cellStyleXfs count="29">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -375,8 +413,14 @@
     <xf numFmtId="164" fontId="8" fillId="5" borderId="1" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="6" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="28">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -385,11 +429,11 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="10" fillId="6" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="10" fillId="7" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="10" fillId="6" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="10" fillId="7" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -401,19 +445,19 @@
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="10" fillId="7" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="10" fillId="8" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="10" fillId="7" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="10" fillId="8" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="10" fillId="8" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="10" fillId="9" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="9" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -461,8 +505,36 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="27" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="6" borderId="0" xfId="28" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="13">
+  <cellStyles count="15">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Comma" xfId="15" builtinId="3"/>
     <cellStyle name="Comma [0]" xfId="16" builtinId="6"/>
@@ -476,6 +548,8 @@
     <cellStyle name="Heading 1 1" xfId="24"/>
     <cellStyle name="Heading 1 2" xfId="25"/>
     <cellStyle name="Note 2" xfId="26"/>
+    <cellStyle name="Heading 1" xfId="27"/>
+    <cellStyle name="Accent 1" xfId="28"/>
   </cellStyles>
   <dxfs count="4">
     <dxf>
@@ -603,7 +677,7 @@
 </styleSheet>
 </file>
 
-<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -803,11 +877,11 @@
         </c:ser>
         <c:gapWidth val="100"/>
         <c:overlap val="0"/>
-        <c:axId val="46889046"/>
-        <c:axId val="26580797"/>
+        <c:axId val="32112317"/>
+        <c:axId val="27925578"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="46889046"/>
+        <c:axId val="32112317"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -835,7 +909,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="26580797"/>
+        <c:crossAx val="27925578"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -843,7 +917,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="26580797"/>
+        <c:axId val="27925578"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -880,7 +954,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="46889046"/>
+        <c:crossAx val="32112317"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -928,7 +1002,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -1128,11 +1202,11 @@
         </c:ser>
         <c:gapWidth val="100"/>
         <c:overlap val="0"/>
-        <c:axId val="28561684"/>
-        <c:axId val="91549913"/>
+        <c:axId val="57951136"/>
+        <c:axId val="93178129"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="28561684"/>
+        <c:axId val="57951136"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1160,7 +1234,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="91549913"/>
+        <c:crossAx val="93178129"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1168,7 +1242,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="91549913"/>
+        <c:axId val="93178129"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1205,7 +1279,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="28561684"/>
+        <c:crossAx val="57951136"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1220,6 +1294,351 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln w="0">
+          <a:noFill/>
+        </a:ln>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+              <a:latin typeface="Arial"/>
+            </a:defRPr>
+          </a:pPr>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:srgbClr val="ffffff"/>
+    </a:solidFill>
+    <a:ln w="0">
+      <a:noFill/>
+    </a:ln>
+  </c:spPr>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart9.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr b="0" sz="1300" spc="-1" strike="noStrike">
+                <a:latin typeface="Arial"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr b="0" sz="1300" spc="-1" strike="noStrike">
+                <a:latin typeface="Arial"/>
+              </a:rPr>
+              <a:t>Confronto Utilizzazione Casse</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln w="0">
+          <a:noFill/>
+        </a:ln>
+      </c:spPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>originale</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>originale</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="004586"/>
+            </a:solidFill>
+            <a:ln w="0">
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:txPr>
+              <a:bodyPr wrap="none"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                    <a:latin typeface="Arial"/>
+                  </a:defRPr>
+                </a:pPr>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:separator> </c:separator>
+            <c:showLeaderLines val="1"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:multiLvlStrRef>
+              <c:f>Sheet2!$D$73:$F$73</c:f>
+              <c:multiLvlStrCache>
+                <c:ptCount val="1"/>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>Cassa 3</c:v>
+                  </c:pt>
+                </c:lvl>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>Cassa 2</c:v>
+                  </c:pt>
+                </c:lvl>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>Cassa 1</c:v>
+                  </c:pt>
+                </c:lvl>
+              </c:multiLvlStrCache>
+            </c:multiLvlStrRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet2!$B$74:$C$74</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>0.6227</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.6046</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>migliorato</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>migliorato</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="ff420e"/>
+            </a:solidFill>
+            <a:ln w="0">
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:txPr>
+              <a:bodyPr wrap="none"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                    <a:latin typeface="Arial"/>
+                  </a:defRPr>
+                </a:pPr>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:separator> </c:separator>
+            <c:showLeaderLines val="1"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:multiLvlStrRef>
+              <c:f>Sheet2!$D$73:$F$73</c:f>
+              <c:multiLvlStrCache>
+                <c:ptCount val="1"/>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>Cassa 3</c:v>
+                  </c:pt>
+                </c:lvl>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>Cassa 2</c:v>
+                  </c:pt>
+                </c:lvl>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>Cassa 1</c:v>
+                  </c:pt>
+                </c:lvl>
+              </c:multiLvlStrCache>
+            </c:multiLvlStrRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet2!$D$74:$F$74</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>0.4128</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.4259</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.4098</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:gapWidth val="100"/>
+        <c:overlap val="0"/>
+        <c:axId val="77433247"/>
+        <c:axId val="5426130"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="77433247"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln w="0">
+            <a:solidFill>
+              <a:srgbClr val="b3b3b3"/>
+            </a:solidFill>
+          </a:ln>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                <a:latin typeface="Arial"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="5426130"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="5426130"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="1"/>
+          <c:min val="0"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="0">
+              <a:solidFill>
+                <a:srgbClr val="b3b3b3"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln w="0">
+            <a:solidFill>
+              <a:srgbClr val="b3b3b3"/>
+            </a:solidFill>
+          </a:ln>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                <a:latin typeface="Arial"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="77433247"/>
+        <c:crossesAt val="0"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln w="0">
+          <a:solidFill>
+            <a:srgbClr val="b3b3b3"/>
+          </a:solidFill>
+        </a:ln>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="t"/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1315,6 +1734,36 @@
     </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>727200</xdr:colOff>
+      <xdr:row>76</xdr:row>
+      <xdr:rowOff>41400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>148320</xdr:colOff>
+      <xdr:row>99</xdr:row>
+      <xdr:rowOff>66960</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame>
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name=""/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="727200" y="12983400"/>
+        <a:ext cx="5757120" cy="3764520"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -2081,10 +2530,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:T61"/>
+  <dimension ref="A1:T74"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A34" colorId="64" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G63" activeCellId="0" sqref="G63"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A70" colorId="64" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="J82" activeCellId="0" sqref="J82"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -3327,8 +3776,61 @@
         <v>0.285357142857143</v>
       </c>
     </row>
+    <row r="69" customFormat="false" ht="22.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B69" s="21" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="72" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B72" s="22" t="s">
+        <v>37</v>
+      </c>
+      <c r="C72" s="22"/>
+      <c r="D72" s="22" t="s">
+        <v>38</v>
+      </c>
+      <c r="E72" s="22"/>
+      <c r="F72" s="22"/>
+    </row>
+    <row r="73" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B73" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="C73" s="23" t="s">
+        <v>40</v>
+      </c>
+      <c r="D73" s="24" t="s">
+        <v>39</v>
+      </c>
+      <c r="E73" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="F73" s="0" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="74" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A74" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="B74" s="25" t="n">
+        <v>0.6227</v>
+      </c>
+      <c r="C74" s="26" t="n">
+        <v>0.6046</v>
+      </c>
+      <c r="D74" s="27" t="n">
+        <v>0.4128</v>
+      </c>
+      <c r="E74" s="25" t="n">
+        <v>0.4259</v>
+      </c>
+      <c r="F74" s="25" t="n">
+        <v>0.4098</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="10">
     <mergeCell ref="B4:D4"/>
     <mergeCell ref="I4:K4"/>
     <mergeCell ref="N4:Q4"/>
@@ -3337,6 +3839,8 @@
     <mergeCell ref="N5:Q5"/>
     <mergeCell ref="B50:D50"/>
     <mergeCell ref="B51:D51"/>
+    <mergeCell ref="B72:C72"/>
+    <mergeCell ref="D72:F72"/>
   </mergeCells>
   <conditionalFormatting sqref="D14">
     <cfRule type="cellIs" priority="2" operator="between" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">

--- a/data/parametri_teorici_modelli.xlsx
+++ b/data/parametri_teorici_modelli.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="42">
   <si>
     <t xml:space="preserve">r_xy</t>
   </si>
@@ -677,7 +677,7 @@
 </styleSheet>
 </file>
 
-<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart13.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -877,11 +877,11 @@
         </c:ser>
         <c:gapWidth val="100"/>
         <c:overlap val="0"/>
-        <c:axId val="32112317"/>
-        <c:axId val="27925578"/>
+        <c:axId val="38631645"/>
+        <c:axId val="11220401"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="32112317"/>
+        <c:axId val="38631645"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -909,7 +909,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="27925578"/>
+        <c:crossAx val="11220401"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -917,7 +917,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="27925578"/>
+        <c:axId val="11220401"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -954,7 +954,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="32112317"/>
+        <c:crossAx val="38631645"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1002,7 +1002,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart14.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -1202,11 +1202,11 @@
         </c:ser>
         <c:gapWidth val="100"/>
         <c:overlap val="0"/>
-        <c:axId val="57951136"/>
-        <c:axId val="93178129"/>
+        <c:axId val="38995177"/>
+        <c:axId val="29114460"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="57951136"/>
+        <c:axId val="38995177"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1234,7 +1234,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="93178129"/>
+        <c:crossAx val="29114460"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1242,7 +1242,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="93178129"/>
+        <c:axId val="29114460"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1279,7 +1279,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="57951136"/>
+        <c:crossAx val="38995177"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1327,7 +1327,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart9.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart15.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -1347,7 +1347,7 @@
               <a:rPr b="0" sz="1300" spc="-1" strike="noStrike">
                 <a:latin typeface="Arial"/>
               </a:rPr>
-              <a:t>Confronto Utilizzazione Casse</a:t>
+              <a:t>Confronto Utilizzazione</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -1545,11 +1545,11 @@
         </c:ser>
         <c:gapWidth val="100"/>
         <c:overlap val="0"/>
-        <c:axId val="77433247"/>
-        <c:axId val="5426130"/>
+        <c:axId val="9714037"/>
+        <c:axId val="3908849"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="77433247"/>
+        <c:axId val="9714037"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1577,7 +1577,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="5426130"/>
+        <c:crossAx val="3908849"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1585,7 +1585,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="5426130"/>
+        <c:axId val="3908849"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1"/>
@@ -1624,7 +1624,350 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="77433247"/>
+        <c:crossAx val="9714037"/>
+        <c:crossesAt val="0"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln w="0">
+          <a:solidFill>
+            <a:srgbClr val="b3b3b3"/>
+          </a:solidFill>
+        </a:ln>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="t"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln w="0">
+          <a:noFill/>
+        </a:ln>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+              <a:latin typeface="Arial"/>
+            </a:defRPr>
+          </a:pPr>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:srgbClr val="ffffff"/>
+    </a:solidFill>
+    <a:ln w="0">
+      <a:noFill/>
+    </a:ln>
+  </c:spPr>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart16.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr b="0" sz="1300" spc="-1" strike="noStrike">
+                <a:latin typeface="Arial"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr b="0" sz="1300" spc="-1" strike="noStrike">
+                <a:latin typeface="Arial"/>
+              </a:rPr>
+              <a:t>Confronto Tempi di Attesa</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln w="0">
+          <a:noFill/>
+        </a:ln>
+      </c:spPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>originale</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>originale</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="004586"/>
+            </a:solidFill>
+            <a:ln w="0">
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:txPr>
+              <a:bodyPr wrap="none"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                    <a:latin typeface="Arial"/>
+                  </a:defRPr>
+                </a:pPr>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:separator> </c:separator>
+            <c:showLeaderLines val="1"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:multiLvlStrRef>
+              <c:f>Sheet2!$D$73:$F$73</c:f>
+              <c:multiLvlStrCache>
+                <c:ptCount val="1"/>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>Cassa 3</c:v>
+                  </c:pt>
+                </c:lvl>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>Cassa 2</c:v>
+                  </c:pt>
+                </c:lvl>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>Cassa 1</c:v>
+                  </c:pt>
+                </c:lvl>
+              </c:multiLvlStrCache>
+            </c:multiLvlStrRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet2!$B$75:$C$75</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>4.4847</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4.3785</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>migliorato</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>migliorato</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="ff420e"/>
+            </a:solidFill>
+            <a:ln w="0">
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:txPr>
+              <a:bodyPr wrap="none"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                    <a:latin typeface="Arial"/>
+                  </a:defRPr>
+                </a:pPr>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:separator> </c:separator>
+            <c:showLeaderLines val="1"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:multiLvlStrRef>
+              <c:f>Sheet2!$D$73:$F$73</c:f>
+              <c:multiLvlStrCache>
+                <c:ptCount val="1"/>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>Cassa 3</c:v>
+                  </c:pt>
+                </c:lvl>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>Cassa 2</c:v>
+                  </c:pt>
+                </c:lvl>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>Cassa 1</c:v>
+                  </c:pt>
+                </c:lvl>
+              </c:multiLvlStrCache>
+            </c:multiLvlStrRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet2!$D$75:$F$75</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>2.1168</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.3086</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.788</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:gapWidth val="100"/>
+        <c:overlap val="0"/>
+        <c:axId val="79086372"/>
+        <c:axId val="64002318"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="79086372"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln w="0">
+            <a:solidFill>
+              <a:srgbClr val="b3b3b3"/>
+            </a:solidFill>
+          </a:ln>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                <a:latin typeface="Arial"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="64002318"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="64002318"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="0">
+              <a:solidFill>
+                <a:srgbClr val="b3b3b3"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln w="0">
+            <a:solidFill>
+              <a:srgbClr val="b3b3b3"/>
+            </a:solidFill>
+          </a:ln>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                <a:latin typeface="Arial"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="79086372"/>
         <c:crossesAt val="0"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1737,15 +2080,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>727200</xdr:colOff>
-      <xdr:row>76</xdr:row>
-      <xdr:rowOff>41400</xdr:rowOff>
+      <xdr:colOff>673920</xdr:colOff>
+      <xdr:row>79</xdr:row>
+      <xdr:rowOff>152280</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>148320</xdr:colOff>
-      <xdr:row>99</xdr:row>
-      <xdr:rowOff>66960</xdr:rowOff>
+      <xdr:colOff>95040</xdr:colOff>
+      <xdr:row>103</xdr:row>
+      <xdr:rowOff>15120</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -1753,12 +2096,42 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="727200" y="12983400"/>
+        <a:off x="673920" y="13581720"/>
         <a:ext cx="5757120" cy="3764520"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>227520</xdr:colOff>
+      <xdr:row>79</xdr:row>
+      <xdr:rowOff>141120</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>295920</xdr:colOff>
+      <xdr:row>102</xdr:row>
+      <xdr:rowOff>140040</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame>
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name=""/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="6563520" y="13570560"/>
+        <a:ext cx="5758200" cy="3737880"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -2530,10 +2903,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:T74"/>
+  <dimension ref="A1:T75"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A70" colorId="64" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="J82" activeCellId="0" sqref="J82"/>
+      <selection pane="topLeft" activeCell="L103" activeCellId="0" sqref="L103"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -3827,6 +4200,26 @@
       </c>
       <c r="F74" s="25" t="n">
         <v>0.4098</v>
+      </c>
+    </row>
+    <row r="75" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A75" s="0" t="s">
+        <v>35</v>
+      </c>
+      <c r="B75" s="25" t="n">
+        <v>4.4847</v>
+      </c>
+      <c r="C75" s="25" t="n">
+        <v>4.3785</v>
+      </c>
+      <c r="D75" s="25" t="n">
+        <v>2.1168</v>
+      </c>
+      <c r="E75" s="25" t="n">
+        <v>2.3086</v>
+      </c>
+      <c r="F75" s="25" t="n">
+        <v>1.788</v>
       </c>
     </row>
   </sheetData>

--- a/data/parametri_teorici_modelli.xlsx
+++ b/data/parametri_teorici_modelli.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="46">
   <si>
     <t xml:space="preserve">r_xy</t>
   </si>
@@ -169,6 +169,18 @@
   <si>
     <t xml:space="preserve">Cassa 3</t>
   </si>
+  <si>
+    <t xml:space="preserve">Utilizzazione</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Addetto 1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cassiere 1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cassiere 2</t>
+  </si>
 </sst>
 </file>
 
@@ -179,7 +191,7 @@
     <numFmt numFmtId="165" formatCode="#,##0.00"/>
     <numFmt numFmtId="166" formatCode="General"/>
   </numFmts>
-  <fonts count="14">
+  <fonts count="15">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -273,6 +285,11 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="10">
     <fill>
@@ -280,6 +297,12 @@
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF000000"/>
+        <bgColor rgb="FF003300"/>
+      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -303,12 +326,6 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor rgb="FFFFFFFF"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF000000"/>
-        <bgColor rgb="FF003300"/>
       </patternFill>
     </fill>
     <fill>
@@ -395,13 +412,16 @@
     <xf numFmtId="164" fontId="4" fillId="2" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="3" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="3" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="4" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="4" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="4" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="5" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="5" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </xf>
     <xf numFmtId="164" fontId="7" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
@@ -410,13 +430,10 @@
     <xf numFmtId="164" fontId="7" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="5" borderId="1" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
     <xf numFmtId="164" fontId="7" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="6" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="8" fillId="6" borderId="1" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </xf>
   </cellStyleXfs>
@@ -465,23 +482,27 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="25" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="24" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="26" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="25" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="3" borderId="0" xfId="21" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="5" fillId="4" borderId="0" xfId="22" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="0" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="4" fillId="3" borderId="0" xfId="21" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="3" borderId="1" xfId="26" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="8" fillId="4" borderId="1" xfId="28" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -489,11 +510,11 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="4" borderId="0" xfId="23" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="6" fillId="5" borderId="0" xfId="24" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -501,35 +522,31 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="27" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="27" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="0" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="6" borderId="0" xfId="28" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -541,15 +558,15 @@
     <cellStyle name="Currency" xfId="17" builtinId="4"/>
     <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
     <cellStyle name="Percent" xfId="19" builtinId="5"/>
-    <cellStyle name="Accent 2 1" xfId="20"/>
-    <cellStyle name="Accent 3 2" xfId="21"/>
-    <cellStyle name="Good 3" xfId="22"/>
-    <cellStyle name="Good 4" xfId="23"/>
-    <cellStyle name="Heading 1 1" xfId="24"/>
-    <cellStyle name="Heading 1 2" xfId="25"/>
-    <cellStyle name="Note 2" xfId="26"/>
-    <cellStyle name="Heading 1" xfId="27"/>
-    <cellStyle name="Accent 1" xfId="28"/>
+    <cellStyle name="Accent 1 4" xfId="20"/>
+    <cellStyle name="Accent 2 1" xfId="21"/>
+    <cellStyle name="Accent 3 2" xfId="22"/>
+    <cellStyle name="Good 3" xfId="23"/>
+    <cellStyle name="Good 4" xfId="24"/>
+    <cellStyle name="Heading 1 1" xfId="25"/>
+    <cellStyle name="Heading 1 2" xfId="26"/>
+    <cellStyle name="Heading 1 3" xfId="27"/>
+    <cellStyle name="Note 2" xfId="28"/>
   </cellStyles>
   <dxfs count="4">
     <dxf>
@@ -598,7 +615,6 @@
           <bgColor rgb="FFCCFFCC"/>
         </patternFill>
       </fill>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </dxf>
     <dxf>
       <font>
@@ -618,7 +634,7 @@
     <indexedColors>
       <rgbColor rgb="FF000000"/>
       <rgbColor rgb="FFFFFFFF"/>
-      <rgbColor rgb="FFFF0000"/>
+      <rgbColor rgb="FFFF4000"/>
       <rgbColor rgb="FF00FF00"/>
       <rgbColor rgb="FF0000FF"/>
       <rgbColor rgb="FFFFFF00"/>
@@ -658,7 +674,7 @@
       <rgbColor rgb="FFFFCC99"/>
       <rgbColor rgb="FF3366FF"/>
       <rgbColor rgb="FF33CCCC"/>
-      <rgbColor rgb="FF99CC00"/>
+      <rgbColor rgb="FF81D41A"/>
       <rgbColor rgb="FFFFCC00"/>
       <rgbColor rgb="FFFF9900"/>
       <rgbColor rgb="FFFF420E"/>
@@ -677,7 +693,7 @@
 </styleSheet>
 </file>
 
-<file path=xl/charts/chart13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -877,11 +893,11 @@
         </c:ser>
         <c:gapWidth val="100"/>
         <c:overlap val="0"/>
-        <c:axId val="38631645"/>
-        <c:axId val="11220401"/>
+        <c:axId val="69297853"/>
+        <c:axId val="83552835"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="38631645"/>
+        <c:axId val="69297853"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -909,7 +925,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="11220401"/>
+        <c:crossAx val="83552835"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -917,7 +933,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="11220401"/>
+        <c:axId val="83552835"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -954,7 +970,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="38631645"/>
+        <c:crossAx val="69297853"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1002,7 +1018,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -1202,11 +1218,11 @@
         </c:ser>
         <c:gapWidth val="100"/>
         <c:overlap val="0"/>
-        <c:axId val="38995177"/>
-        <c:axId val="29114460"/>
+        <c:axId val="68498855"/>
+        <c:axId val="61354304"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="38995177"/>
+        <c:axId val="68498855"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1234,7 +1250,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="29114460"/>
+        <c:crossAx val="61354304"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1242,7 +1258,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="29114460"/>
+        <c:axId val="61354304"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1279,7 +1295,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="38995177"/>
+        <c:crossAx val="68498855"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1327,7 +1343,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -1390,6 +1406,7 @@
           </c:spPr>
           <c:invertIfNegative val="0"/>
           <c:dLbls>
+            <c:numFmt formatCode="General" sourceLinked="1"/>
             <c:txPr>
               <a:bodyPr wrap="none"/>
               <a:lstStyle/>
@@ -1401,8 +1418,9 @@
                 </a:pPr>
               </a:p>
             </c:txPr>
+            <c:dLblPos val="outEnd"/>
             <c:showLegendKey val="0"/>
-            <c:showVal val="0"/>
+            <c:showVal val="1"/>
             <c:showCatName val="0"/>
             <c:showSerName val="0"/>
             <c:showPercent val="0"/>
@@ -1477,6 +1495,7 @@
           </c:spPr>
           <c:invertIfNegative val="0"/>
           <c:dLbls>
+            <c:numFmt formatCode="General" sourceLinked="1"/>
             <c:txPr>
               <a:bodyPr wrap="none"/>
               <a:lstStyle/>
@@ -1488,8 +1507,9 @@
                 </a:pPr>
               </a:p>
             </c:txPr>
+            <c:dLblPos val="outEnd"/>
             <c:showLegendKey val="0"/>
-            <c:showVal val="0"/>
+            <c:showVal val="1"/>
             <c:showCatName val="0"/>
             <c:showSerName val="0"/>
             <c:showPercent val="0"/>
@@ -1545,17 +1565,17 @@
         </c:ser>
         <c:gapWidth val="100"/>
         <c:overlap val="0"/>
-        <c:axId val="9714037"/>
-        <c:axId val="3908849"/>
+        <c:axId val="54061886"/>
+        <c:axId val="96452713"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="9714037"/>
+        <c:axId val="54061886"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -1577,7 +1597,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="3908849"/>
+        <c:crossAx val="96452713"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1585,7 +1605,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="3908849"/>
+        <c:axId val="96452713"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1"/>
@@ -1602,7 +1622,7 @@
             </a:ln>
           </c:spPr>
         </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -1624,7 +1644,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="9714037"/>
+        <c:crossAx val="54061886"/>
         <c:crossesAt val="0"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1672,7 +1692,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -1735,6 +1755,7 @@
           </c:spPr>
           <c:invertIfNegative val="0"/>
           <c:dLbls>
+            <c:numFmt formatCode="General" sourceLinked="1"/>
             <c:txPr>
               <a:bodyPr wrap="none"/>
               <a:lstStyle/>
@@ -1746,8 +1767,9 @@
                 </a:pPr>
               </a:p>
             </c:txPr>
+            <c:dLblPos val="outEnd"/>
             <c:showLegendKey val="0"/>
-            <c:showVal val="0"/>
+            <c:showVal val="1"/>
             <c:showCatName val="0"/>
             <c:showSerName val="0"/>
             <c:showPercent val="0"/>
@@ -1822,6 +1844,7 @@
           </c:spPr>
           <c:invertIfNegative val="0"/>
           <c:dLbls>
+            <c:numFmt formatCode="General" sourceLinked="1"/>
             <c:txPr>
               <a:bodyPr wrap="none"/>
               <a:lstStyle/>
@@ -1833,8 +1856,9 @@
                 </a:pPr>
               </a:p>
             </c:txPr>
+            <c:dLblPos val="outEnd"/>
             <c:showLegendKey val="0"/>
-            <c:showVal val="0"/>
+            <c:showVal val="1"/>
             <c:showCatName val="0"/>
             <c:showSerName val="0"/>
             <c:showPercent val="0"/>
@@ -1890,17 +1914,17 @@
         </c:ser>
         <c:gapWidth val="100"/>
         <c:overlap val="0"/>
-        <c:axId val="79086372"/>
-        <c:axId val="64002318"/>
+        <c:axId val="94612058"/>
+        <c:axId val="35546152"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="79086372"/>
+        <c:axId val="94612058"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -1922,7 +1946,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="64002318"/>
+        <c:crossAx val="35546152"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1930,7 +1954,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="64002318"/>
+        <c:axId val="35546152"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1945,7 +1969,7 @@
             </a:ln>
           </c:spPr>
         </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -1967,7 +1991,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="79086372"/>
+        <c:crossAx val="94612058"/>
         <c:crossesAt val="0"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2015,6 +2039,338 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr b="0" sz="1300" spc="-1" strike="noStrike">
+                <a:latin typeface="Arial"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr b="0" sz="1300" spc="-1" strike="noStrike">
+                <a:latin typeface="Arial"/>
+              </a:rPr>
+              <a:t>Resources Utiliaztion</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln w="0">
+          <a:noFill/>
+        </a:ln>
+      </c:spPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>utilization</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>utilization</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="004586"/>
+            </a:solidFill>
+            <a:ln w="0">
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dPt>
+            <c:idx val="1"/>
+            <c:invertIfNegative val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="ff4000"/>
+              </a:solidFill>
+              <a:ln w="0">
+                <a:noFill/>
+              </a:ln>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="2"/>
+            <c:invertIfNegative val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="81d41a"/>
+              </a:solidFill>
+              <a:ln w="0">
+                <a:noFill/>
+              </a:ln>
+            </c:spPr>
+          </c:dPt>
+          <c:dLbls>
+            <c:dLbl>
+              <c:idx val="1"/>
+              <c:txPr>
+                <a:bodyPr wrap="none"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                      <a:latin typeface="Arial"/>
+                    </a:defRPr>
+                  </a:pPr>
+                </a:p>
+              </c:txPr>
+              <c:dLblPos val="outEnd"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:separator> </c:separator>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="2"/>
+              <c:txPr>
+                <a:bodyPr wrap="none"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                      <a:latin typeface="Arial"/>
+                    </a:defRPr>
+                  </a:pPr>
+                </a:p>
+              </c:txPr>
+              <c:dLblPos val="outEnd"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:separator> </c:separator>
+            </c:dLbl>
+            <c:txPr>
+              <a:bodyPr wrap="none"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                    <a:latin typeface="Arial"/>
+                  </a:defRPr>
+                </a:pPr>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:separator> </c:separator>
+            <c:showLeaderLines val="1"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:multiLvlStrRef>
+              <c:f>Sheet2!$B$113:$D$113</c:f>
+              <c:multiLvlStrCache>
+                <c:ptCount val="1"/>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>Cassiere 2</c:v>
+                  </c:pt>
+                </c:lvl>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>Cassiere 1</c:v>
+                  </c:pt>
+                </c:lvl>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>Addetto 1</c:v>
+                  </c:pt>
+                </c:lvl>
+              </c:multiLvlStrCache>
+            </c:multiLvlStrRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet2!$B$114:$D$114</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>0.4045</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.6227</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.6046</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:gapWidth val="100"/>
+        <c:overlap val="0"/>
+        <c:axId val="74648068"/>
+        <c:axId val="74670951"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="74648068"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr b="0" sz="900" spc="-1" strike="noStrike">
+                    <a:latin typeface="Arial"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr b="0" sz="900" spc="-1" strike="noStrike">
+                    <a:latin typeface="Arial"/>
+                  </a:rPr>
+                  <a:t>Title</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln w="0">
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln w="0">
+            <a:solidFill>
+              <a:srgbClr val="b3b3b3"/>
+            </a:solidFill>
+          </a:ln>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                <a:latin typeface="Arial"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="74670951"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="74670951"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="1"/>
+          <c:min val="0"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="0">
+              <a:solidFill>
+                <a:srgbClr val="b3b3b3"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln w="0">
+            <a:solidFill>
+              <a:srgbClr val="b3b3b3"/>
+            </a:solidFill>
+          </a:ln>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                <a:latin typeface="Arial"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="74648068"/>
+        <c:crossesAt val="0"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln w="0">
+          <a:solidFill>
+            <a:srgbClr val="b3b3b3"/>
+          </a:solidFill>
+        </a:ln>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:srgbClr val="ffffff"/>
+    </a:solidFill>
+    <a:ln w="0">
+      <a:noFill/>
+    </a:ln>
+  </c:spPr>
+</c:chartSpace>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <xdr:twoCellAnchor editAs="oneCell">
@@ -2026,9 +2382,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>627480</xdr:colOff>
+      <xdr:colOff>627120</xdr:colOff>
       <xdr:row>43</xdr:row>
-      <xdr:rowOff>19800</xdr:rowOff>
+      <xdr:rowOff>19440</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -2037,7 +2393,7 @@
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="534600" y="3629160"/>
-        <a:ext cx="6428880" cy="3615840"/>
+        <a:ext cx="6428520" cy="3615480"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -2056,9 +2412,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
-      <xdr:colOff>283320</xdr:colOff>
+      <xdr:colOff>282960</xdr:colOff>
       <xdr:row>43</xdr:row>
-      <xdr:rowOff>79920</xdr:rowOff>
+      <xdr:rowOff>79560</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -2067,7 +2423,7 @@
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="9132480" y="3690000"/>
-        <a:ext cx="6427800" cy="3615120"/>
+        <a:ext cx="6427440" cy="3614760"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -2086,9 +2442,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>95040</xdr:colOff>
+      <xdr:colOff>94680</xdr:colOff>
       <xdr:row>103</xdr:row>
-      <xdr:rowOff>15120</xdr:rowOff>
+      <xdr:rowOff>14760</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -2097,7 +2453,7 @@
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="673920" y="13581720"/>
-        <a:ext cx="5757120" cy="3764520"/>
+        <a:ext cx="5756760" cy="3764160"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -2116,9 +2472,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>295920</xdr:colOff>
+      <xdr:colOff>295560</xdr:colOff>
       <xdr:row>102</xdr:row>
-      <xdr:rowOff>140040</xdr:rowOff>
+      <xdr:rowOff>139680</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -2127,11 +2483,41 @@
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="6563520" y="13570560"/>
-        <a:ext cx="5758200" cy="3737880"/>
+        <a:ext cx="5757840" cy="3737520"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>29880</xdr:colOff>
+      <xdr:row>114</xdr:row>
+      <xdr:rowOff>160560</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>264960</xdr:colOff>
+      <xdr:row>136</xdr:row>
+      <xdr:rowOff>115200</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame>
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name=""/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="842760" y="19279800"/>
+        <a:ext cx="5758200" cy="3530880"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId5"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -2354,7 +2740,6 @@
       <c r="L7" s="1"/>
       <c r="M7" s="1"/>
       <c r="N7" s="1"/>
-      <c r="P7" s="1"/>
     </row>
     <row r="8" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1"/>
@@ -2903,99 +3288,99 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:T75"/>
+  <dimension ref="A1:T114"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A70" colorId="64" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="L103" activeCellId="0" sqref="L103"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A103" colorId="64" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="I109" activeCellId="0" sqref="I109"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="6.85"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="13.86"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="11" width="6.85"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="11" width="13.86"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="22.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D1" s="11" t="s">
+      <c r="D1" s="12" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="22.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B4" s="12" t="s">
+      <c r="B4" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="C4" s="12"/>
-      <c r="D4" s="12"/>
-      <c r="I4" s="12" t="s">
+      <c r="C4" s="13"/>
+      <c r="D4" s="13"/>
+      <c r="I4" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="J4" s="12"/>
-      <c r="K4" s="12"/>
-      <c r="L4" s="12"/>
-      <c r="N4" s="12" t="s">
+      <c r="J4" s="13"/>
+      <c r="K4" s="13"/>
+      <c r="L4" s="13"/>
+      <c r="N4" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="O4" s="12"/>
-      <c r="P4" s="12"/>
-      <c r="Q4" s="12"/>
+      <c r="O4" s="13"/>
+      <c r="P4" s="13"/>
+      <c r="Q4" s="13"/>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B5" s="13" t="s">
+      <c r="B5" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="C5" s="13"/>
-      <c r="D5" s="13"/>
-      <c r="I5" s="13" t="s">
+      <c r="C5" s="14"/>
+      <c r="D5" s="14"/>
+      <c r="I5" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="J5" s="13"/>
-      <c r="K5" s="13"/>
-      <c r="L5" s="13"/>
-      <c r="N5" s="13" t="s">
+      <c r="J5" s="14"/>
+      <c r="K5" s="14"/>
+      <c r="L5" s="14"/>
+      <c r="N5" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="O5" s="13"/>
-      <c r="P5" s="13"/>
-      <c r="Q5" s="13"/>
+      <c r="O5" s="14"/>
+      <c r="P5" s="14"/>
+      <c r="Q5" s="14"/>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C6" s="14" t="s">
+      <c r="C6" s="15" t="s">
         <v>25</v>
       </c>
-      <c r="D6" s="14" t="s">
+      <c r="D6" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="E6" s="14" t="s">
+      <c r="E6" s="15" t="s">
         <v>27</v>
       </c>
-      <c r="F6" s="14" t="s">
+      <c r="F6" s="15" t="s">
         <v>28</v>
       </c>
-      <c r="G6" s="14" t="s">
+      <c r="G6" s="15" t="s">
         <v>29</v>
       </c>
-      <c r="J6" s="14" t="s">
+      <c r="J6" s="15" t="s">
         <v>25</v>
       </c>
-      <c r="K6" s="14" t="s">
+      <c r="K6" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="L6" s="14" t="s">
+      <c r="L6" s="15" t="s">
         <v>27</v>
       </c>
-      <c r="O6" s="14" t="s">
+      <c r="O6" s="15" t="s">
         <v>25</v>
       </c>
-      <c r="P6" s="14" t="s">
+      <c r="P6" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="Q6" s="14" t="s">
+      <c r="Q6" s="15" t="s">
         <v>27</v>
       </c>
-      <c r="R6" s="14" t="s">
+      <c r="R6" s="15" t="s">
         <v>28</v>
       </c>
-      <c r="S6" s="14" t="s">
+      <c r="S6" s="15" t="s">
         <v>29</v>
       </c>
     </row>
@@ -3007,8 +3392,8 @@
         <f aca="false">Foglio1!F18</f>
         <v>3</v>
       </c>
-      <c r="D7" s="15"/>
-      <c r="E7" s="15"/>
+      <c r="D7" s="16"/>
+      <c r="E7" s="16"/>
       <c r="I7" s="10" t="s">
         <v>30</v>
       </c>
@@ -3038,8 +3423,8 @@
         <f aca="false">Foglio1!F19</f>
         <v>0.333333333333333</v>
       </c>
-      <c r="D8" s="15"/>
-      <c r="E8" s="15"/>
+      <c r="D8" s="16"/>
+      <c r="E8" s="16"/>
       <c r="I8" s="10" t="s">
         <v>31</v>
       </c>
@@ -3069,8 +3454,8 @@
         <f aca="false">Foglio1!F20</f>
         <v>0.206611570247934</v>
       </c>
-      <c r="D9" s="15"/>
-      <c r="E9" s="15"/>
+      <c r="D9" s="16"/>
+      <c r="E9" s="16"/>
       <c r="I9" s="10" t="s">
         <v>6</v>
       </c>
@@ -3096,21 +3481,21 @@
       <c r="B10" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="C10" s="16" t="n">
+      <c r="C10" s="17" t="n">
         <f aca="false">Foglio1!F21</f>
         <v>0.619834710743802</v>
       </c>
-      <c r="D10" s="17" t="n">
+      <c r="D10" s="18" t="n">
         <v>0.627</v>
       </c>
       <c r="E10" s="10" t="n">
         <v>0.02</v>
       </c>
-      <c r="F10" s="0" t="n">
+      <c r="F10" s="11" t="n">
         <f aca="false">(1/1.96) * SQRT(100) * E10</f>
         <v>0.102040816326531</v>
       </c>
-      <c r="G10" s="0" t="n">
+      <c r="G10" s="11" t="n">
         <f aca="false">1.645 * (F10/SQRT(100))</f>
         <v>0.0167857142857143</v>
       </c>
@@ -3124,24 +3509,24 @@
       <c r="K10" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="N10" s="14" t="s">
+      <c r="N10" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="O10" s="16" t="n">
+      <c r="O10" s="17" t="n">
         <f aca="false">Foglio1!J16</f>
         <v>0.408963108119622</v>
       </c>
-      <c r="P10" s="17" t="n">
+      <c r="P10" s="18" t="n">
         <v>0.4045</v>
       </c>
       <c r="Q10" s="10" t="n">
         <v>0.02</v>
       </c>
-      <c r="R10" s="0" t="n">
+      <c r="R10" s="11" t="n">
         <f aca="false">(1/1.96) * SQRT(100) * Q10</f>
         <v>0.102040816326531</v>
       </c>
-      <c r="S10" s="0" t="n">
+      <c r="S10" s="11" t="n">
         <f aca="false">1.645 * (R10/SQRT(100))</f>
         <v>0.0167857142857143</v>
       </c>
@@ -3154,8 +3539,8 @@
         <f aca="false">C10/(1-C10)</f>
         <v>1.6304347826087</v>
       </c>
-      <c r="D12" s="18"/>
-      <c r="E12" s="18"/>
+      <c r="D12" s="19"/>
+      <c r="E12" s="19"/>
       <c r="I12" s="10" t="s">
         <v>32</v>
       </c>
@@ -3182,8 +3567,8 @@
         <f aca="false">(1/C8)/(1-C10)</f>
         <v>7.8913043478261</v>
       </c>
-      <c r="D13" s="18"/>
-      <c r="E13" s="18"/>
+      <c r="D13" s="19"/>
+      <c r="E13" s="19"/>
       <c r="I13" s="10" t="s">
         <v>33</v>
       </c>
@@ -3203,89 +3588,89 @@
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B14" s="14" t="s">
+      <c r="B14" s="15" t="s">
         <v>34</v>
       </c>
-      <c r="C14" s="19" t="n">
+      <c r="C14" s="20" t="n">
         <f aca="false">C12 -C10</f>
         <v>1.0106000718649</v>
       </c>
-      <c r="D14" s="20" t="n">
+      <c r="D14" s="11" t="n">
         <v>1.0013</v>
       </c>
       <c r="E14" s="10" t="n">
         <v>0.16</v>
       </c>
-      <c r="F14" s="0" t="n">
+      <c r="F14" s="11" t="n">
         <f aca="false">(1/1.96) * SQRT(100) * E14</f>
         <v>0.816326530612245</v>
       </c>
-      <c r="G14" s="0" t="n">
+      <c r="G14" s="11" t="n">
         <f aca="false">1.645 * (F14/SQRT(100))</f>
         <v>0.134285714285714</v>
       </c>
-      <c r="N14" s="14" t="s">
+      <c r="N14" s="15" t="s">
         <v>34</v>
       </c>
-      <c r="O14" s="19" t="n">
+      <c r="O14" s="20" t="n">
         <f aca="false">O12 -O10</f>
         <v>0.28297865344878</v>
       </c>
-      <c r="P14" s="20" t="n">
+      <c r="P14" s="11" t="n">
         <v>0.2674</v>
       </c>
       <c r="Q14" s="10" t="n">
         <v>0.04</v>
       </c>
-      <c r="R14" s="0" t="n">
+      <c r="R14" s="11" t="n">
         <f aca="false">(1/1.96) * SQRT(100) * Q14</f>
         <v>0.204081632653061</v>
       </c>
-      <c r="S14" s="0" t="n">
+      <c r="S14" s="11" t="n">
         <f aca="false">1.645 * (R14/SQRT(100))</f>
         <v>0.0335714285714286</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B15" s="14" t="s">
+      <c r="B15" s="15" t="s">
         <v>35</v>
       </c>
-      <c r="C15" s="19" t="n">
+      <c r="C15" s="20" t="n">
         <f aca="false">C13-C7</f>
         <v>4.8913043478261</v>
       </c>
-      <c r="D15" s="20" t="n">
+      <c r="D15" s="11" t="n">
         <v>4.4847</v>
       </c>
       <c r="E15" s="10" t="n">
         <v>0.6</v>
       </c>
-      <c r="F15" s="0" t="n">
+      <c r="F15" s="11" t="n">
         <f aca="false">(1/1.96) * SQRT(100) * E15</f>
         <v>3.06122448979592</v>
       </c>
-      <c r="G15" s="0" t="n">
+      <c r="G15" s="11" t="n">
         <f aca="false">1.645 * (F15/SQRT(100))</f>
         <v>0.503571428571429</v>
       </c>
-      <c r="N15" s="14" t="s">
+      <c r="N15" s="15" t="s">
         <v>35</v>
       </c>
-      <c r="O15" s="19" t="n">
+      <c r="O15" s="20" t="n">
         <f aca="false">O13-O7</f>
         <v>2.07582528470521</v>
       </c>
-      <c r="P15" s="20" t="n">
+      <c r="P15" s="11" t="n">
         <v>1.905</v>
       </c>
       <c r="Q15" s="10" t="n">
         <v>0.28</v>
       </c>
-      <c r="R15" s="0" t="n">
+      <c r="R15" s="11" t="n">
         <f aca="false">(1/1.96) * SQRT(100) * Q15</f>
         <v>1.42857142857143</v>
       </c>
-      <c r="S15" s="0" t="n">
+      <c r="S15" s="11" t="n">
         <f aca="false">1.645 * (R15/SQRT(100))</f>
         <v>0.235</v>
       </c>
@@ -3888,7 +4273,7 @@
       <c r="A47" s="10"/>
       <c r="B47" s="10"/>
       <c r="C47" s="10"/>
-      <c r="D47" s="11" t="s">
+      <c r="D47" s="12" t="s">
         <v>21</v>
       </c>
       <c r="E47" s="10"/>
@@ -3954,11 +4339,11 @@
     </row>
     <row r="50" customFormat="false" ht="22.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="10"/>
-      <c r="B50" s="12" t="s">
+      <c r="B50" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="C50" s="12"/>
-      <c r="D50" s="12"/>
+      <c r="C50" s="13"/>
+      <c r="D50" s="13"/>
       <c r="F50" s="10"/>
       <c r="G50" s="10"/>
       <c r="H50" s="10"/>
@@ -3971,15 +4356,14 @@
       <c r="O50" s="10"/>
       <c r="P50" s="10"/>
       <c r="Q50" s="10"/>
-      <c r="R50" s="10"/>
     </row>
     <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="10"/>
-      <c r="B51" s="13" t="s">
+      <c r="B51" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="C51" s="13"/>
-      <c r="D51" s="13"/>
+      <c r="C51" s="14"/>
+      <c r="D51" s="14"/>
       <c r="F51" s="10"/>
       <c r="G51" s="10"/>
       <c r="H51" s="10"/>
@@ -3992,23 +4376,22 @@
       <c r="O51" s="10"/>
       <c r="P51" s="10"/>
       <c r="Q51" s="10"/>
-      <c r="R51" s="10"/>
     </row>
     <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="10"/>
-      <c r="C52" s="14" t="s">
+      <c r="C52" s="15" t="s">
         <v>25</v>
       </c>
-      <c r="D52" s="14" t="s">
+      <c r="D52" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="E52" s="14" t="s">
+      <c r="E52" s="15" t="s">
         <v>27</v>
       </c>
-      <c r="F52" s="14" t="s">
+      <c r="F52" s="15" t="s">
         <v>28</v>
       </c>
-      <c r="G52" s="14" t="s">
+      <c r="G52" s="15" t="s">
         <v>29</v>
       </c>
       <c r="H52" s="10"/>
@@ -4033,8 +4416,8 @@
         <f aca="false">Foglio1!E33</f>
         <v>3</v>
       </c>
-      <c r="D53" s="15"/>
-      <c r="E53" s="15"/>
+      <c r="D53" s="16"/>
+      <c r="E53" s="16"/>
     </row>
     <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B54" s="10" t="s">
@@ -4044,8 +4427,8 @@
         <f aca="false">Foglio1!E34</f>
         <v>0.333333333333333</v>
       </c>
-      <c r="D54" s="15"/>
-      <c r="E54" s="15"/>
+      <c r="D54" s="16"/>
+      <c r="E54" s="16"/>
     </row>
     <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B55" s="10" t="s">
@@ -4055,28 +4438,28 @@
         <f aca="false">Foglio1!E35</f>
         <v>0.137741046831956</v>
       </c>
-      <c r="D55" s="15"/>
-      <c r="E55" s="15"/>
+      <c r="D55" s="16"/>
+      <c r="E55" s="16"/>
     </row>
     <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B56" s="14" t="s">
+      <c r="B56" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="C56" s="16" t="n">
+      <c r="C56" s="17" t="n">
         <f aca="false">Foglio1!E36</f>
         <v>0.413223140495868</v>
       </c>
-      <c r="D56" s="20" t="n">
+      <c r="D56" s="11" t="n">
         <v>0.4128</v>
       </c>
       <c r="E56" s="10" t="n">
         <v>0.02</v>
       </c>
-      <c r="F56" s="0" t="n">
+      <c r="F56" s="11" t="n">
         <f aca="false">(1/1.96) * SQRT(100) * E56</f>
         <v>0.102040816326531</v>
       </c>
-      <c r="G56" s="0" t="n">
+      <c r="G56" s="11" t="n">
         <f aca="false">1.645 * (F56/SQRT(100))</f>
         <v>0.0167857142857143</v>
       </c>
@@ -4089,8 +4472,8 @@
         <f aca="false">C56/(1-C56)</f>
         <v>0.704225352112677</v>
       </c>
-      <c r="D58" s="18"/>
-      <c r="E58" s="18"/>
+      <c r="D58" s="19"/>
+      <c r="E58" s="19"/>
     </row>
     <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B59" s="10" t="s">
@@ -4100,51 +4483,51 @@
         <f aca="false">(1/C54)/(1-C56)</f>
         <v>5.11267605633803</v>
       </c>
-      <c r="D59" s="18"/>
-      <c r="E59" s="18"/>
+      <c r="D59" s="19"/>
+      <c r="E59" s="19"/>
     </row>
     <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B60" s="14" t="s">
+      <c r="B60" s="15" t="s">
         <v>34</v>
       </c>
-      <c r="C60" s="19" t="n">
+      <c r="C60" s="20" t="n">
         <f aca="false">C58 -C56</f>
         <v>0.291002211616809</v>
       </c>
-      <c r="D60" s="20" t="n">
+      <c r="D60" s="11" t="n">
         <v>0.3011</v>
       </c>
       <c r="E60" s="10" t="n">
         <v>0.06</v>
       </c>
-      <c r="F60" s="0" t="n">
+      <c r="F60" s="11" t="n">
         <f aca="false">(1/1.96) * SQRT(100) * E60</f>
         <v>0.306122448979592</v>
       </c>
-      <c r="G60" s="0" t="n">
+      <c r="G60" s="11" t="n">
         <f aca="false">1.645 * (F60/SQRT(100))</f>
         <v>0.0503571428571429</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B61" s="14" t="s">
+      <c r="B61" s="15" t="s">
         <v>35</v>
       </c>
-      <c r="C61" s="19" t="n">
+      <c r="C61" s="20" t="n">
         <f aca="false">C59-C53</f>
         <v>2.11267605633803</v>
       </c>
-      <c r="D61" s="20" t="n">
+      <c r="D61" s="11" t="n">
         <v>2.1186</v>
       </c>
       <c r="E61" s="10" t="n">
         <v>0.34</v>
       </c>
-      <c r="F61" s="0" t="n">
+      <c r="F61" s="11" t="n">
         <f aca="false">(1/1.96) * SQRT(100) * E61</f>
         <v>1.73469387755102</v>
       </c>
-      <c r="G61" s="0" t="n">
+      <c r="G61" s="11" t="n">
         <f aca="false">1.645 * (F61/SQRT(100))</f>
         <v>0.285357142857143</v>
       </c>
@@ -4166,7 +4549,7 @@
       <c r="F72" s="22"/>
     </row>
     <row r="73" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B73" s="0" t="s">
+      <c r="B73" s="11" t="s">
         <v>39</v>
       </c>
       <c r="C73" s="23" t="s">
@@ -4175,15 +4558,15 @@
       <c r="D73" s="24" t="s">
         <v>39</v>
       </c>
-      <c r="E73" s="0" t="s">
+      <c r="E73" s="11" t="s">
         <v>40</v>
       </c>
-      <c r="F73" s="0" t="s">
+      <c r="F73" s="11" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="74" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A74" s="0" t="s">
+      <c r="A74" s="11" t="s">
         <v>17</v>
       </c>
       <c r="B74" s="25" t="n">
@@ -4203,7 +4586,7 @@
       </c>
     </row>
     <row r="75" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A75" s="0" t="s">
+      <c r="A75" s="11" t="s">
         <v>35</v>
       </c>
       <c r="B75" s="25" t="n">
@@ -4220,6 +4603,33 @@
       </c>
       <c r="F75" s="25" t="n">
         <v>1.788</v>
+      </c>
+    </row>
+    <row r="111" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B111" s="0" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="113" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B113" s="0" t="s">
+        <v>43</v>
+      </c>
+      <c r="C113" s="0" t="s">
+        <v>44</v>
+      </c>
+      <c r="D113" s="0" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="114" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B114" s="0" t="n">
+        <v>0.4045</v>
+      </c>
+      <c r="C114" s="0" t="n">
+        <v>0.6227</v>
+      </c>
+      <c r="D114" s="0" t="n">
+        <v>0.6046</v>
       </c>
     </row>
   </sheetData>
